--- a/Tau_values_Hom_shortInterval.xlsx
+++ b/Tau_values_Hom_shortInterval.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_A08133E7111BD764F7C8C406C78737787105433D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE978C14-E8DB-1544-80A0-161CAEF1B048}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>tau_1</t>
+  </si>
+  <si>
+    <t>tau_2</t>
+  </si>
+  <si>
+    <t>tau_3</t>
+  </si>
   <si>
     <t>tau_1</t>
   </si>
@@ -60,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +77,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,5981 +401,6019 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A523" workbookViewId="0">
       <selection activeCell="C554" sqref="C554:C556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
         <v>22.438446065617114</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>22.519488026704167</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>20.670756068931183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
         <v>17.483530252283209</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>19.0178998086501</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>18.255264334838127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
         <v>22.526552840492467</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>17.545967843372182</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>24.418014145422152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
         <v>21.198142424938723</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>20.806993555495453</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>20.045427888990222</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
         <v>21.296404527859018</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>24.043111760054511</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>23.228988756686238</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
         <v>21.17148082704524</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>20.694183498615853</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>22.726176220605044</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
         <v>22.45504560944142</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>18.964336478583895</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>27.134673413419304</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
         <v>22.449665144427925</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>20.053538108022625</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>23.39682164614505</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
         <v>21.400584243331547</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>21.482183761235198</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>22.876416861917885</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
         <v>20.295330289448312</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>20.64613403147159</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>21.457679379800481</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
         <v>22.862627949221178</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>25.243831380026158</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>24.012349552599694</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
         <v>20.16262576725487</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>20.96410685336819</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>19.80040879177929</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
         <v>22.215061812055477</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>21.686614811550143</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>25.270689366546375</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
         <v>19.875801794121877</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>21.36662672268108</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>28.065720193387254</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
         <v>27.358688111976928</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>21.348324250251093</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>24.824494548277453</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
         <v>24.999681133163392</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>19.458362656538934</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>27.881371607183141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
         <v>19.976040854241937</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>20.580376320841204</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>23.355044971829077</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
         <v>22.644460476875469</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>23.663307377141571</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>25.104305327645328</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
         <v>21.619081043715372</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>19.566964978339957</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>22.545065656515966</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
         <v>22.775527695378514</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>20.613480388927108</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>22.036259763146344</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
         <v>18.265425166462609</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>20.742986769844403</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>25.138373367193672</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
         <v>23.023529577193923</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>22.771226734117107</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>23.340628548551805</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
         <v>21.069834623960936</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>19.803049557868455</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>18.383622148641866</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
         <v>21.613617421496457</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>22.18176878523515</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>26.989398631824226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
         <v>22.12515078173314</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>25.820302696352663</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>24.191838353742952</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
         <v>22.463269233194058</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>26.183223682444144</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>24.080152342812546</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
         <v>23.184943856355066</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>27.553824736346865</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>20.927387051947342</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
         <v>26.535455821498946</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>27.078003082843953</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>27.184767622559345</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
         <v>22.511539619142692</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>22.254235985231524</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>21.766767734867507</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
         <v>23.421654864715613</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>21.499414409922618</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>29.953038755888549</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
         <v>31.946988358793924</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>24.153733078005352</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>23.802644608732912</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
         <v>21.864806076439482</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>22.697568095879383</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>26.564591818875058</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="0">
         <v>28.10778430646301</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>22.064629658834409</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>36.02316005934069</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="0">
         <v>26.070042635706336</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>29.064235505180591</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>33.670533690877349</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="0">
         <v>21.646693256512606</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>23.186017566071808</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>24.090975206018872</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="0">
         <v>26.583314921938971</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>24.513003263645647</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>26.432672974326007</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="0">
         <v>25.473012765137835</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>26.924443723947768</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>25.469234043629729</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="0">
         <v>23.642581605852936</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>22.324630542331011</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>26.298021597448713</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="0">
         <v>25.041431323539054</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>23.468622459792819</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>24.963225494751576</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41" s="0">
         <v>24.76926252385493</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>26.281437585991821</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>24.268867082894722</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="0">
         <v>28.275019569337797</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>21.203422167070624</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>30.01042070481736</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43" s="0">
         <v>27.732299464342248</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>24.302612125632272</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>26.340459628392136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="0">
         <v>28.964201001796674</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>19.821219227506997</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>27.610347377235058</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="0">
         <v>24.640018318890331</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>30.784653773351049</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>27.733667357803881</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46" s="0">
         <v>29.339714023355</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>27.454977923776305</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>34.47795131624612</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47" s="0">
         <v>25.475014479322667</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>24.698829086333365</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>24.149693982977801</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="0">
         <v>26.023981876335483</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>23.943769658832633</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>27.507365186284371</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49" s="0">
         <v>25.94635362548091</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>24.001899570815876</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>26.860641975340929</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50" s="0">
         <v>37.428506559543742</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>27.826575209193443</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>34.386904179315209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="0">
         <v>20.852727805177874</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>19.876352265141907</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>17.430315744833628</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="0">
         <v>20.503700477342907</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>21.01131083438591</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>16.850801038338389</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53" s="0">
         <v>20.360985407548068</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>18.61603372438984</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>16.397320482365604</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" x14ac:dyDescent="0.2">
+      <c r="A54" s="0">
         <v>19.086589232405295</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>18.061211707873753</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>17.160708705095793</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" x14ac:dyDescent="0.2">
+      <c r="A55" s="0">
         <v>20.519213274671049</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>19.592646548634328</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>19.916959998517239</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" x14ac:dyDescent="0.2">
+      <c r="A56" s="0">
         <v>20.46624358124183</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>20.76669880351492</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>16.896089919689899</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="0">
         <v>24.99502230641086</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>22.226970956301095</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>24.118666161350646</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" x14ac:dyDescent="0.2">
+      <c r="A58" s="0">
         <v>24.007345309729157</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>18.906765479187218</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>16.159545125638601</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59" x14ac:dyDescent="0.2">
+      <c r="A59" s="0">
         <v>25.667763539047669</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>23.471814071587829</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>18.943364328340298</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60" x14ac:dyDescent="0.2">
+      <c r="A60" s="0">
         <v>22.723178105764191</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>21.94183146862828</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>20.129228153711178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" x14ac:dyDescent="0.2">
+      <c r="A61" s="0">
         <v>20.049506348190082</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>14.893680947174769</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>17.544779496497874</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="A62" s="0">
         <v>15.132992165394569</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>14.198955669198824</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>22.541473704464497</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63" x14ac:dyDescent="0.2">
+      <c r="A63" s="0">
         <v>25.416578719643979</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>21.878951635649223</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>19.67242205016036</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="0">
         <v>23.004900120119494</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>19.371801664750972</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>18.58048097767244</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" x14ac:dyDescent="0.2">
+      <c r="A65" s="0">
         <v>25.743319303598621</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>20.917373912605068</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>19.165911176570486</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" x14ac:dyDescent="0.2">
+      <c r="A66" s="0">
         <v>16.456407885643038</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>17.284654897163673</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>20.109234742696039</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" x14ac:dyDescent="0.2">
+      <c r="A67" s="0">
         <v>19.559269898028216</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>19.308069688244679</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>17.417402421363768</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="0">
         <v>22.280966773199125</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>21.782008214988174</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>22.519999695870439</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" x14ac:dyDescent="0.2">
+      <c r="A69" s="0">
         <v>19.501042162758313</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>19.586747789125447</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>20.25512158427567</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" x14ac:dyDescent="0.2">
+      <c r="A70" s="0">
         <v>26.562672190872618</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>23.87500185475081</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>21.973385218740674</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" x14ac:dyDescent="0.2">
+      <c r="A71" s="0">
         <v>22.511768657835489</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>18.051712026549982</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>19.976386329693781</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" x14ac:dyDescent="0.2">
+      <c r="A72" s="0">
         <v>23.801998712802817</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>18.974330410732613</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>19.775901516435024</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" x14ac:dyDescent="0.2">
+      <c r="A73" s="0">
         <v>21.716060069917532</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>20.242273978694165</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>21.206021988600035</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" x14ac:dyDescent="0.2">
+      <c r="A74" s="0">
         <v>15.736247173196022</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>22.700139646493827</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>19.051267532084289</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" x14ac:dyDescent="0.2">
+      <c r="A75" s="0">
         <v>21.281518447325823</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>20.30292462507467</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>18.779415573558587</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" x14ac:dyDescent="0.2">
+      <c r="A76" s="0">
         <v>25.104350098404364</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>19.61094710538816</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>19.876094969953723</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" x14ac:dyDescent="0.2">
+      <c r="A77" s="0">
         <v>24.462361627005841</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>21.420764149984652</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>22.725951310429529</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" x14ac:dyDescent="0.2">
+      <c r="A78" s="0">
         <v>25.505598573141324</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>21.567098070285336</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>24.165781647520049</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" x14ac:dyDescent="0.2">
+      <c r="A79" s="0">
         <v>24.46360275917959</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>24.026431901660754</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>21.090624805054947</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" x14ac:dyDescent="0.2">
+      <c r="A80" s="0">
         <v>21.167431572301254</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>18.549315979370657</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>19.887274844793726</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" x14ac:dyDescent="0.2">
+      <c r="A81" s="0">
         <v>23.279865810804512</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>18.728183308500984</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>23.051627422862094</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" x14ac:dyDescent="0.2">
+      <c r="A82" s="0">
         <v>22.495902696029461</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>17.126574690565011</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>17.528932956520539</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83" x14ac:dyDescent="0.2">
+      <c r="A83" s="0">
         <v>21.084626447520197</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>23.783122987783369</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>23.157119622522732</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" x14ac:dyDescent="0.2">
+      <c r="A84" s="0">
         <v>24.019639146948506</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>20.506808227339</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>22.872499052162961</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" x14ac:dyDescent="0.2">
+      <c r="A85" s="0">
         <v>20.146796542052751</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>18.400585638398084</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>22.18715276932695</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" x14ac:dyDescent="0.2">
+      <c r="A86" s="0">
         <v>24.341727840987105</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>27.717486181568489</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>21.521182625500298</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" x14ac:dyDescent="0.2">
+      <c r="A87" s="0">
         <v>23.99429136613438</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>19.995734748229268</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>22.162583938361184</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" x14ac:dyDescent="0.2">
+      <c r="A88" s="0">
         <v>22.330961060959574</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>19.666126596348207</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>21.953537059837597</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89" x14ac:dyDescent="0.2">
+      <c r="A89" s="0">
         <v>21.183564083478082</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>21.800900780463753</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>21.695624940674232</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" x14ac:dyDescent="0.2">
+      <c r="A90" s="0">
         <v>25.897134854548678</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>30.609607919990331</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>20.645220654115494</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" x14ac:dyDescent="0.2">
+      <c r="A91" s="0">
         <v>24.528539805567068</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>24.210562018955557</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>25.300101807806904</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92" x14ac:dyDescent="0.2">
+      <c r="A92" s="0">
         <v>25.012763249096153</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>23.911878672768552</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>26.059885062306787</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" x14ac:dyDescent="0.2">
+      <c r="A93" s="0">
         <v>24.815127825011203</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>24.209969520286041</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0">
         <v>32.80263168279032</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94" x14ac:dyDescent="0.2">
+      <c r="A94" s="0">
         <v>32.442292464441749</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>31.651361029458563</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>24.41333332770958</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95" x14ac:dyDescent="0.2">
+      <c r="A95" s="0">
         <v>20.724614732980172</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>18.521661638402421</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>23.65442182166003</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96" x14ac:dyDescent="0.2">
+      <c r="A96" s="0">
         <v>27.681205556621457</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>22.64722623646329</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>29.748604126690839</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97" x14ac:dyDescent="0.2">
+      <c r="A97" s="0">
         <v>23.143072465007499</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>29.663828274752959</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>21.32251895421313</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98" x14ac:dyDescent="0.2">
+      <c r="A98" s="0">
         <v>22.50496217818532</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>24.760264267673662</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>24.431198699447016</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99" x14ac:dyDescent="0.2">
+      <c r="A99" s="0">
         <v>31.437187912869529</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>23.133996927585322</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>26.314334253569641</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100" x14ac:dyDescent="0.2">
+      <c r="A100" s="0">
         <v>30.057634354041266</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>26.971563162929556</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>30.591721161642905</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101" x14ac:dyDescent="0.2">
+      <c r="A101" s="0">
         <v>28.257741172468656</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>28.089810953898017</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>25.13781168998856</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="0">
         <v>26.308178298502064</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>32.206942876354901</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>31.494129393956424</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103" x14ac:dyDescent="0.2">
+      <c r="A103" s="0">
         <v>21.915343860426397</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>17.032538140402579</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>23.188180506698828</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="104" x14ac:dyDescent="0.2">
+      <c r="A104" s="0">
         <v>23.882042583072913</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>19.357119306928972</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>27.155537930420678</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="105">
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+    </row>
+    <row r="106" x14ac:dyDescent="0.2">
+      <c r="A106" s="0">
         <v>22.112058110746158</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>14.555263631066538</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="C106" s="0"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="0"/>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+    </row>
+    <row r="109" x14ac:dyDescent="0.2">
+      <c r="A109" s="0">
         <v>25.864240865487055</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>35.323788805013592</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>31.466649456150556</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="110" x14ac:dyDescent="0.2">
+      <c r="A110" s="0">
         <v>17.329833250587132</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>22.337321149533221</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>20.200236301683066</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="111" x14ac:dyDescent="0.2">
+      <c r="A111" s="0">
         <v>20.320741487420154</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>21.652752810595622</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>20.216914843302639</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112" x14ac:dyDescent="0.2">
+      <c r="A112" s="0">
         <v>16.070070752511082</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>19.171868292047289</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>17.438837059879035</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113" x14ac:dyDescent="0.2">
+      <c r="A113" s="0">
         <v>15.620973117907662</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>15.032475586113902</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>23.078366936516773</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="114" x14ac:dyDescent="0.2">
+      <c r="A114" s="0">
         <v>15.433071718981008</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>19.582674318339659</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>20.130148965989079</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="115" x14ac:dyDescent="0.2">
+      <c r="A115" s="0">
         <v>17.770436178185264</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>16.142817612170063</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>21.148329121218449</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="116" x14ac:dyDescent="0.2">
+      <c r="A116" s="0">
         <v>20.417646689347013</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>19.395270103308903</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>21.379798950426249</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117" x14ac:dyDescent="0.2">
+      <c r="A117" s="0">
         <v>19.594157169159438</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>19.355214360251004</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>19.595069765143958</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="118" x14ac:dyDescent="0.2">
+      <c r="A118" s="0">
         <v>22.921701195820386</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>22.416407076698931</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>21.728415054447694</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="119" x14ac:dyDescent="0.2">
+      <c r="A119" s="0">
         <v>18.503177083038668</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>21.389742285400423</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>22.384758701962884</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="120" x14ac:dyDescent="0.2">
+      <c r="A120" s="0">
         <v>19.51890676032605</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>22.164420488078864</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>20.997248004554493</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="121" x14ac:dyDescent="0.2">
+      <c r="A121" s="0">
         <v>19.153276662298413</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>19.211683565541538</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>19.580649829738231</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="122" x14ac:dyDescent="0.2">
+      <c r="A122" s="0">
         <v>23.11157861531435</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>21.107739167447669</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>22.868159339738337</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="123" x14ac:dyDescent="0.2">
+      <c r="A123" s="0">
         <v>18.960518283590027</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>20.537041162053523</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>21.246342083419055</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="124" x14ac:dyDescent="0.2">
+      <c r="A124" s="0">
         <v>21.134363426665701</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>21.835143002294721</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>21.893541007626393</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="125" x14ac:dyDescent="0.2">
+      <c r="A125" s="0">
         <v>23.37537938817858</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>19.085644038898085</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>22.646269510811493</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126" x14ac:dyDescent="0.2">
+      <c r="A126" s="0">
         <v>19.7140246333901</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>20.155958055730455</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>22.74942147482383</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="127" x14ac:dyDescent="0.2">
+      <c r="A127" s="0">
         <v>20.129142903478208</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>20.389860835520491</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>23.89411686039178</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" x14ac:dyDescent="0.2">
+      <c r="A128" s="0">
         <v>21.291756394099636</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>25.656611424544192</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>26.228768500334553</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129" x14ac:dyDescent="0.2">
+      <c r="A129" s="0">
         <v>20.870362673938256</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>18.936655507831844</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>24.279886981045355</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" x14ac:dyDescent="0.2">
+      <c r="A130" s="0">
         <v>21.578337430718165</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>23.546105631450786</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>22.40615614047649</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131" x14ac:dyDescent="0.2">
+      <c r="A131" s="0">
         <v>22.983889516252454</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>20.779295926178467</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>24.58338135804847</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="132" x14ac:dyDescent="0.2">
+      <c r="A132" s="0">
         <v>24.488198528048567</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>20.664520031543702</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>23.498346309801931</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="133" x14ac:dyDescent="0.2">
+      <c r="A133" s="0">
         <v>20.691201214564909</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>21.736914611997697</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>23.635640385002464</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134" x14ac:dyDescent="0.2">
+      <c r="A134" s="0">
         <v>23.120735990358632</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>25.266906657338716</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>24.161582959157808</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="135" x14ac:dyDescent="0.2">
+      <c r="A135" s="0">
         <v>24.862893647987246</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>20.688815827372153</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>24.215243140604553</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" x14ac:dyDescent="0.2">
+      <c r="A136" s="0">
         <v>19.97429249579648</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>22.979215527961667</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>28.531891316155598</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="137" x14ac:dyDescent="0.2">
+      <c r="A137" s="0">
         <v>19.680091341258855</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>20.92748470471059</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>26.512696047348602</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138" x14ac:dyDescent="0.2">
+      <c r="A138" s="0">
         <v>21.297556086745796</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>24.043992211321299</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>22.137037935141315</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="139" x14ac:dyDescent="0.2">
+      <c r="A139" s="0">
         <v>20.163541779135524</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>20.175906448624662</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>19.454055561770812</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140" x14ac:dyDescent="0.2">
+      <c r="A140" s="0">
         <v>14.633376358624568</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>22.920247144122463</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>61.713022953669359</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="141" x14ac:dyDescent="0.2">
+      <c r="A141" s="0">
         <v>18.556088908028975</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>23.09337517743274</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>24.071274383927015</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="142" x14ac:dyDescent="0.2">
+      <c r="A142" s="0">
         <v>20.472414069040518</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>21.796371897799602</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>21.62679863871039</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="143" x14ac:dyDescent="0.2">
+      <c r="A143" s="0">
         <v>24.387207337479794</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>21.186356294140445</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>27.296281020382114</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="144" x14ac:dyDescent="0.2">
+      <c r="A144" s="0">
         <v>19.942943421790009</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>21.922054412302181</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>19.039439740775155</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="145" x14ac:dyDescent="0.2">
+      <c r="A145" s="0">
         <v>18.065286382717115</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>22.384770668880648</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>28.406155520958276</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="146" x14ac:dyDescent="0.2">
+      <c r="A146" s="0">
         <v>22.363762285562377</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>22.004814598736115</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>29.68853430673515</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="147" x14ac:dyDescent="0.2">
+      <c r="A147" s="0">
         <v>36.388360711479997</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>24.872565444789426</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>30.511594266720401</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="148" x14ac:dyDescent="0.2">
+      <c r="A148" s="0">
         <v>22.460903666263821</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>24.792651670622135</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>23.691639687732685</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="149" x14ac:dyDescent="0.2">
+      <c r="A149" s="0">
         <v>27.454209957857728</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>21.550070743719736</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>31.869751253070806</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="150" x14ac:dyDescent="0.2">
+      <c r="A150" s="0">
         <v>19.541314351556309</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>18.786999530119775</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>18.935100333242293</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="151" x14ac:dyDescent="0.2">
+      <c r="A151" s="0">
         <v>24.10879555682018</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>21.873529125675134</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>23.607040087227176</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="152" x14ac:dyDescent="0.2">
+      <c r="A152" s="0">
         <v>21.441027489279982</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>21.998793346374818</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>23.06327316781169</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="153" x14ac:dyDescent="0.2">
+      <c r="A153" s="0">
         <v>18.495160630582582</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>19.157350441664267</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>18.705949981376079</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="154" x14ac:dyDescent="0.2">
+      <c r="A154" s="0">
         <v>28.577543470028743</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>26.203296770821698</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>20.822446948594298</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="155" x14ac:dyDescent="0.2">
+      <c r="A155" s="0">
         <v>19.735452853376223</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>21.161423932708672</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>21.925329136475145</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156" x14ac:dyDescent="0.2">
+      <c r="A156" s="0">
         <v>17.246190764137339</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>16.97799255225209</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>14.412710518117246</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="157" x14ac:dyDescent="0.2">
+      <c r="A157" s="0">
         <v>20.11604467160738</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>26.295313953259832</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>21.902904999673186</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="158" x14ac:dyDescent="0.2">
+      <c r="A158" s="0">
         <v>22.717700747879451</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>20.546867745383128</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0">
         <v>22.190680207565521</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="159" x14ac:dyDescent="0.2">
+      <c r="A159" s="0">
         <v>18.719093541304339</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>18.695208543696708</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0">
         <v>20.619735650316017</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="160" x14ac:dyDescent="0.2">
+      <c r="A160" s="0">
         <v>24.131513534010484</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>21.599965553821285</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>22.772384728329385</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="161" x14ac:dyDescent="0.2">
+      <c r="A161" s="0">
         <v>25.886061590866213</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>24.597343864459123</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0">
         <v>25.981050690517563</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="162" x14ac:dyDescent="0.2">
+      <c r="A162" s="0">
         <v>19.937165420919548</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>20.211358560453565</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0">
         <v>17.9351100131348</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="163" x14ac:dyDescent="0.2">
+      <c r="A163" s="0">
         <v>20.741170276894241</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>19.153894026184236</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>20.195111437192502</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="164" x14ac:dyDescent="0.2">
+      <c r="A164" s="0">
         <v>31.478524217271559</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>27.354553093884682</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0">
         <v>27.565284167092003</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="165" x14ac:dyDescent="0.2">
+      <c r="A165" s="0">
         <v>20.129269663936</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>22.290629651704592</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0">
         <v>15.531758917173395</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="166" x14ac:dyDescent="0.2">
+      <c r="A166" s="0">
         <v>28.74751680518964</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>29.757179787620167</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0">
         <v>29.221489386513401</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="167" x14ac:dyDescent="0.2">
+      <c r="A167" s="0">
         <v>20.140778981660777</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>16.362630619131476</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0">
         <v>17.912278971164536</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="168" x14ac:dyDescent="0.2">
+      <c r="A168" s="0">
         <v>17.821380817338273</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>17.009883638675767</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0">
         <v>17.463026254805339</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="169" x14ac:dyDescent="0.2">
+      <c r="A169" s="0">
         <v>19.980244270355005</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>22.169468427375786</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0">
         <v>21.738867980591728</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="170" x14ac:dyDescent="0.2">
+      <c r="A170" s="0">
         <v>28.042945606419163</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>23.941367085702264</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0">
         <v>23.700471792345684</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="171" x14ac:dyDescent="0.2">
+      <c r="A171" s="0">
         <v>17.398863911428382</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>16.924903139782742</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0">
         <v>20.553368544168897</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="172" x14ac:dyDescent="0.2">
+      <c r="A172" s="0">
         <v>14.483345081501833</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>21.016630960052733</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0">
         <v>16.681826516739854</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="173" x14ac:dyDescent="0.2">
+      <c r="A173" s="0">
         <v>22.193209502617304</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>18.451720791741138</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0">
         <v>21.091193567781247</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
+    <row r="174" x14ac:dyDescent="0.2">
+      <c r="A174" s="0">
         <v>25.849229704598617</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>23.157945988093164</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0">
         <v>22.844051898646661</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
+    <row r="175" x14ac:dyDescent="0.2">
+      <c r="A175" s="0">
         <v>22.002899548236037</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>25.815903717547815</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0">
         <v>22.753431149603294</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="176" x14ac:dyDescent="0.2">
+      <c r="A176" s="0">
         <v>16.849884875043713</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0">
         <v>19.766014406912721</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0">
         <v>17.108981756151415</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="177" x14ac:dyDescent="0.2">
+      <c r="A177" s="0">
         <v>19.283695395522169</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0">
         <v>23.27855161684165</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0">
         <v>24.392010921132361</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="178" x14ac:dyDescent="0.2">
+      <c r="A178" s="0">
         <v>21.996699987470251</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0">
         <v>21.007890441655885</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0">
         <v>19.24602110385743</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
+    <row r="179" x14ac:dyDescent="0.2">
+      <c r="A179" s="0">
         <v>20.959336429742123</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0">
         <v>21.41436743002496</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0">
         <v>19.146025814243465</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="180" x14ac:dyDescent="0.2">
+      <c r="A180" s="0">
         <v>19.443956918319966</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0">
         <v>37.767509362870243</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0">
         <v>32.986377534287413</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="181" x14ac:dyDescent="0.2">
+      <c r="A181" s="0">
         <v>26.696264664861008</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0">
         <v>28.722340042366067</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0">
         <v>27.411605992096</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
+    <row r="182" x14ac:dyDescent="0.2">
+      <c r="A182" s="0">
         <v>20.314139833976572</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0">
         <v>19.201060854375871</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0">
         <v>21.946242370316831</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="183" x14ac:dyDescent="0.2">
+      <c r="A183" s="0">
         <v>18.654260111751721</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0">
         <v>20.085878903866426</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0">
         <v>19.603746962518766</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="184" x14ac:dyDescent="0.2">
+      <c r="A184" s="0">
         <v>14.880817650995423</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0">
         <v>27.345708073280381</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0">
         <v>26.397990791459492</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="185" x14ac:dyDescent="0.2">
+      <c r="A185" s="0">
         <v>24.328092274751615</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0">
         <v>24.484529225860797</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0">
         <v>25.834697179770892</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="186" x14ac:dyDescent="0.2">
+      <c r="A186" s="0">
         <v>20.748978733432981</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0">
         <v>24.557391069683018</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0">
         <v>22.549389718070415</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="187" x14ac:dyDescent="0.2">
+      <c r="A187" s="0">
         <v>25.157618178839719</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0">
         <v>27.11318558280756</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0">
         <v>23.905362575693527</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="188" x14ac:dyDescent="0.2">
+      <c r="A188" s="0">
         <v>22.163449389313509</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0">
         <v>20.301131830145643</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0">
         <v>35.23148438995149</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189" x14ac:dyDescent="0.2">
+      <c r="A189" s="0">
         <v>19.738505872701545</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0">
         <v>26.661604104378405</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0">
         <v>20.359224624292796</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="190" x14ac:dyDescent="0.2">
+      <c r="A190" s="0">
         <v>25.552545182819841</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0">
         <v>23.370247459790082</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0">
         <v>21.937763677220399</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="191" x14ac:dyDescent="0.2">
+      <c r="A191" s="0">
         <v>19.554262504250712</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0">
         <v>20.941764421284603</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0">
         <v>28.57714339654585</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="192" x14ac:dyDescent="0.2">
+      <c r="A192" s="0">
         <v>22.14795638393576</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0">
         <v>19.711735951994257</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0">
         <v>19.570180619686383</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
+    <row r="193" x14ac:dyDescent="0.2">
+      <c r="A193" s="0">
         <v>17.864406554796929</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0">
         <v>22.255618100628272</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0">
         <v>17.938475374589416</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
+    <row r="194" x14ac:dyDescent="0.2">
+      <c r="A194" s="0">
         <v>25.250861731293977</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0">
         <v>20.709044132878624</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0">
         <v>22.776855649320105</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
+    <row r="195" x14ac:dyDescent="0.2">
+      <c r="A195" s="0">
         <v>22.98950504570351</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0">
         <v>18.929293368369187</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0">
         <v>19.395175217688873</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
+    <row r="196" x14ac:dyDescent="0.2">
+      <c r="A196" s="0">
         <v>23.525601568044557</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0">
         <v>19.317531677318858</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0">
         <v>23.227162611121827</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
+    <row r="197" x14ac:dyDescent="0.2">
+      <c r="A197" s="0">
         <v>24.647126295865931</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0">
         <v>24.367572655190216</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0">
         <v>25.296036295296172</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C198">
+    <row r="198" x14ac:dyDescent="0.2">
+      <c r="A198" s="0"/>
+      <c r="B198" s="0"/>
+      <c r="C198" s="0">
         <v>43.434928001221266</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
+    <row r="199" x14ac:dyDescent="0.2">
+      <c r="A199" s="0">
         <v>23.030305647246706</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0">
         <v>21.444689481485419</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0">
         <v>21.162701192686367</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
+    <row r="200" x14ac:dyDescent="0.2">
+      <c r="A200" s="0">
         <v>23.857698272645713</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0">
         <v>20.877962560513254</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0">
         <v>22.600550849535615</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="201" x14ac:dyDescent="0.2">
+      <c r="A201" s="0">
         <v>22.539860275729691</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0">
         <v>22.106227197476635</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0">
         <v>23.474229122368687</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="202" x14ac:dyDescent="0.2">
+      <c r="A202" s="0">
         <v>22.438305894189174</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0">
         <v>21.669496701556398</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0">
         <v>23.424044159590146</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="203" x14ac:dyDescent="0.2">
+      <c r="A203" s="0">
         <v>34.278748941706439</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0">
         <v>24.547209383721189</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0">
         <v>26.587143888432472</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="204" x14ac:dyDescent="0.2">
+      <c r="A204" s="0">
         <v>23.228100841536605</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0">
         <v>24.416859291179257</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0">
         <v>26.751102207997146</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="205" x14ac:dyDescent="0.2">
+      <c r="A205" s="0">
         <v>23.040775250761747</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0">
         <v>23.153236854618278</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0">
         <v>24.310681603823411</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="206" x14ac:dyDescent="0.2">
+      <c r="A206" s="0">
         <v>19.961927692161275</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0">
         <v>27.407575934141459</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0">
         <v>26.117663756720262</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="207" x14ac:dyDescent="0.2">
+      <c r="A207" s="0">
         <v>25.234931795888603</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0">
         <v>23.746996462272659</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0">
         <v>28.391939915891403</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
+    <row r="208" x14ac:dyDescent="0.2">
+      <c r="A208" s="0">
         <v>17.948952119319308</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0">
         <v>19.53206884952143</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0">
         <v>21.457581092554001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="209" x14ac:dyDescent="0.2">
+      <c r="A209" s="0">
         <v>25.055817821620398</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0">
         <v>24.981761253999515</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0">
         <v>23.970775739888431</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="210" x14ac:dyDescent="0.2">
+      <c r="A210" s="0">
         <v>17.349593913032873</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0">
         <v>16.250489232168999</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0">
         <v>15.011366465645272</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="211" x14ac:dyDescent="0.2">
+      <c r="A211" s="0">
         <v>32.253820028520892</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0">
         <v>24.131653087689848</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0">
         <v>23.424879088076395</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="212" x14ac:dyDescent="0.2">
+      <c r="A212" s="0">
         <v>19.22591055668364</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0">
         <v>20.42862901937055</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0">
         <v>21.413268944732845</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="213" x14ac:dyDescent="0.2">
+      <c r="A213" s="0">
         <v>29.625951701924812</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0">
         <v>22.129217331944631</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0">
         <v>24.378240177506523</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="214" x14ac:dyDescent="0.2">
+      <c r="A214" s="0">
         <v>20.069447094842594</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0">
         <v>21.858967582734628</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0">
         <v>20.852727459070287</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="215" x14ac:dyDescent="0.2">
+      <c r="A215" s="0">
         <v>21.110028302735731</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0">
         <v>21.826675947422721</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0">
         <v>24.522512875330818</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="216" x14ac:dyDescent="0.2">
+      <c r="A216" s="0">
         <v>19.273049295985711</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0">
         <v>20.126806233359208</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0">
         <v>21.282436934136495</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="217" x14ac:dyDescent="0.2">
+      <c r="A217" s="0">
         <v>29.193197932780436</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0">
         <v>23.77626043432781</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0">
         <v>33.411043768184797</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="218" x14ac:dyDescent="0.2">
+      <c r="A218" s="0">
         <v>26.392632536665051</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0">
         <v>19.507393287465884</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0">
         <v>20.665548977534073</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="219" x14ac:dyDescent="0.2">
+      <c r="A219" s="0">
         <v>20.852824490323695</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0">
         <v>19.929044147361548</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0">
         <v>22.130742376616936</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220">
+    <row r="220" x14ac:dyDescent="0.2">
+      <c r="A220" s="0">
         <v>29.256284386213046</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0">
         <v>25.442728754799642</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0">
         <v>27.094965332404737</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="221" x14ac:dyDescent="0.2">
+      <c r="A221" s="0">
         <v>26.716156250279077</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0">
         <v>33.77059337903107</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0">
         <v>29.774600469420282</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="222" x14ac:dyDescent="0.2">
+      <c r="A222" s="0">
         <v>23.853073860358609</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0">
         <v>24.233367394012109</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0">
         <v>20.603411642950753</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="223" x14ac:dyDescent="0.2">
+      <c r="A223" s="0">
         <v>23.204946857049595</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0">
         <v>20.243535780581286</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0">
         <v>20.311768324835576</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224">
+    <row r="224" x14ac:dyDescent="0.2">
+      <c r="A224" s="0">
         <v>26.067331700242821</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0">
         <v>21.444089722782731</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0">
         <v>26.40691614713748</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="225" x14ac:dyDescent="0.2">
+      <c r="A225" s="0">
         <v>20.409254427527056</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0">
         <v>23.011925335251004</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0">
         <v>22.627551366758588</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
+    <row r="226" x14ac:dyDescent="0.2">
+      <c r="A226" s="0">
         <v>18.675984636677796</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0">
         <v>19.951859381531161</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0">
         <v>24.717942259290179</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="227" x14ac:dyDescent="0.2">
+      <c r="A227" s="0">
         <v>26.204703216879278</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0">
         <v>24.901690100497916</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0">
         <v>23.474502087914566</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="228" x14ac:dyDescent="0.2">
+      <c r="A228" s="0">
         <v>23.200164097410248</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0">
         <v>20.821426129928994</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0">
         <v>21.943594959570852</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="229" x14ac:dyDescent="0.2">
+      <c r="A229" s="0">
         <v>22.369013211871842</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0">
         <v>29.159406590160298</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0">
         <v>27.980584820213672</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="230" x14ac:dyDescent="0.2">
+      <c r="A230" s="0">
         <v>30.339836033992334</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0">
         <v>26.887786508287409</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0">
         <v>24.482425219906425</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231">
+    <row r="231" x14ac:dyDescent="0.2">
+      <c r="A231" s="0">
         <v>20.279664202111874</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0">
         <v>22.266838558863142</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0">
         <v>20.399201027357929</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="232" x14ac:dyDescent="0.2">
+      <c r="A232" s="0">
         <v>27.140214969444557</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0">
         <v>21.350215719323661</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0">
         <v>22.413401324684962</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233">
+    <row r="233" x14ac:dyDescent="0.2">
+      <c r="A233" s="0">
         <v>22.141258957575992</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0">
         <v>19.654928326883084</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0">
         <v>23.755653707007017</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="234" x14ac:dyDescent="0.2">
+      <c r="A234" s="0">
         <v>23.418813433927543</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0">
         <v>30.641272833191838</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0">
         <v>30.142102581794511</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
+    <row r="235" x14ac:dyDescent="0.2">
+      <c r="A235" s="0">
         <v>20.472044498563719</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0">
         <v>20.768900940272701</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0">
         <v>23.167988214360921</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
+    <row r="236" x14ac:dyDescent="0.2">
+      <c r="A236" s="0">
         <v>22.029677373418163</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0">
         <v>21.570819902049124</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0">
         <v>22.487792576348657</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
+    <row r="237" x14ac:dyDescent="0.2">
+      <c r="A237" s="0">
         <v>22.066478381536584</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0">
         <v>23.670301451868447</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0">
         <v>21.601536162975002</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="238" x14ac:dyDescent="0.2">
+      <c r="A238" s="0">
         <v>18.723696663264793</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0">
         <v>25.477462967924026</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0">
         <v>29.242159400246184</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
+    <row r="239" x14ac:dyDescent="0.2">
+      <c r="A239" s="0">
         <v>23.394877258980724</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0">
         <v>17.236444716717756</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0">
         <v>22.491613610258437</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="240" x14ac:dyDescent="0.2">
+      <c r="A240" s="0">
         <v>14.428682373328403</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0">
         <v>15.351512360703556</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0">
         <v>15.275358289739838</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="241" x14ac:dyDescent="0.2">
+      <c r="A241" s="0">
         <v>24.820724133912492</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0">
         <v>19.862313692904554</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0">
         <v>16.850764690365388</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="242" x14ac:dyDescent="0.2">
+      <c r="A242" s="0">
         <v>16.223092411659643</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0">
         <v>17.220854769866268</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0">
         <v>14.547266725967877</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="243" x14ac:dyDescent="0.2">
+      <c r="A243" s="0">
         <v>16.347982482556166</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0">
         <v>17.160087374239026</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0">
         <v>17.338583125253351</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244">
+    <row r="244" x14ac:dyDescent="0.2">
+      <c r="A244" s="0">
         <v>19.509444029685017</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0">
         <v>22.1668920571386</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0">
         <v>21.001754499458205</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245">
+    <row r="245" x14ac:dyDescent="0.2">
+      <c r="A245" s="0">
         <v>28.137971101901069</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0">
         <v>23.200028962877216</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0">
         <v>22.811090251010526</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="246" x14ac:dyDescent="0.2">
+      <c r="A246" s="0">
         <v>20.823888467402021</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0">
         <v>26.625315601280153</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0">
         <v>29.119376536016929</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247">
+    <row r="247" x14ac:dyDescent="0.2">
+      <c r="A247" s="0">
         <v>21.769680153235644</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0">
         <v>20.788945708727439</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0">
         <v>23.537141529467732</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248">
+    <row r="248" x14ac:dyDescent="0.2">
+      <c r="A248" s="0">
         <v>30.104433169074493</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0">
         <v>25.088421472449213</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0">
         <v>33.95783427338764</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="249" x14ac:dyDescent="0.2">
+      <c r="A249" s="0">
         <v>31.769887678782819</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0">
         <v>32.663049085829719</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0">
         <v>48.022348439515419</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
+    <row r="250" x14ac:dyDescent="0.2">
+      <c r="A250" s="0">
         <v>26.460836745470861</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0">
         <v>26.030127696704735</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0">
         <v>25.11945734946708</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
+    <row r="251" x14ac:dyDescent="0.2">
+      <c r="A251" s="0">
         <v>21.253545005764277</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0">
         <v>21.03305484432315</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0">
         <v>23.38270531941847</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="252" x14ac:dyDescent="0.2">
+      <c r="A252" s="0">
         <v>19.903665195723956</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0">
         <v>29.600487657590566</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0">
         <v>21.455126570669055</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
+    <row r="253" x14ac:dyDescent="0.2">
+      <c r="A253" s="0">
         <v>19.064972942344319</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0">
         <v>21.632180957635398</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0">
         <v>20.628912126253869</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
+    <row r="254" x14ac:dyDescent="0.2">
+      <c r="A254" s="0">
         <v>20.552686850265665</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0">
         <v>19.484426678109266</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0">
         <v>22.795968817519945</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="255" x14ac:dyDescent="0.2">
+      <c r="A255" s="0">
         <v>14.584342883711258</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0">
         <v>17.326325018925914</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0">
         <v>16.050147281718065</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256">
+    <row r="256" x14ac:dyDescent="0.2">
+      <c r="A256" s="0">
         <v>16.646755771903837</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0">
         <v>15.940679057876165</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0">
         <v>20.238893759522266</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
+    <row r="257" x14ac:dyDescent="0.2">
+      <c r="A257" s="0">
         <v>16.183146409441441</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0">
         <v>15.69730326195419</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0">
         <v>20.77626093947789</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="258" x14ac:dyDescent="0.2">
+      <c r="A258" s="0">
         <v>22.309708275924471</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0">
         <v>23.1005331141819</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0">
         <v>23.6637124924647</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259">
+    <row r="259" x14ac:dyDescent="0.2">
+      <c r="A259" s="0">
         <v>32.480269906953225</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0">
         <v>27.16071404211284</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0">
         <v>25.762734109898943</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260">
+    <row r="260" x14ac:dyDescent="0.2">
+      <c r="A260" s="0">
         <v>17.062292606068134</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0">
         <v>14.475094504770707</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0">
         <v>18.950464031574622</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261">
+    <row r="261" x14ac:dyDescent="0.2">
+      <c r="A261" s="0">
         <v>24.863695616813036</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0">
         <v>22.368519738443343</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0">
         <v>24.019284988762536</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262">
+    <row r="262" x14ac:dyDescent="0.2">
+      <c r="A262" s="0">
         <v>25.876931703830461</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0">
         <v>49.927620411247304</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0">
         <v>23.118131380738408</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263">
+    <row r="263" x14ac:dyDescent="0.2">
+      <c r="A263" s="0">
         <v>13.19742916261929</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0">
         <v>15.72067703099354</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0">
         <v>9.9987163106247525</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="264" x14ac:dyDescent="0.2">
+      <c r="A264" s="0">
         <v>41.358661022180769</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0">
         <v>32.018687961484325</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0">
         <v>37.674390591420519</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265">
+    <row r="265" x14ac:dyDescent="0.2">
+      <c r="A265" s="0">
         <v>29.080507178966489</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0">
         <v>29.101710339968093</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0">
         <v>21.703103548614692</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266">
+    <row r="266" x14ac:dyDescent="0.2">
+      <c r="A266" s="0">
         <v>20.347985564082897</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0">
         <v>20.538007932819983</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0">
         <v>23.722868991621471</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267">
+    <row r="267" x14ac:dyDescent="0.2">
+      <c r="A267" s="0">
         <v>25.707747101508346</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0">
         <v>25.809001665925386</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0">
         <v>21.94478504838245</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="268" x14ac:dyDescent="0.2">
+      <c r="A268" s="0">
         <v>34.047872213622639</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0">
         <v>23.748380151562149</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0">
         <v>27.041895234998663</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269">
+    <row r="269" x14ac:dyDescent="0.2">
+      <c r="A269" s="0">
         <v>29.84118824244532</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0">
         <v>27.252270115047665</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0">
         <v>24.030967619875447</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="270" x14ac:dyDescent="0.2">
+      <c r="A270" s="0">
         <v>25.690997338677604</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0">
         <v>25.488490485927233</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0">
         <v>29.246491897118617</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271">
+    <row r="271" x14ac:dyDescent="0.2">
+      <c r="A271" s="0">
         <v>21.523919643960522</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0">
         <v>26.889388357639525</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0">
         <v>60.198325166599027</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="272" x14ac:dyDescent="0.2">
+      <c r="A272" s="0">
         <v>23.466702363061923</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0">
         <v>24.527828029397188</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0">
         <v>23.775663605952325</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="273" x14ac:dyDescent="0.2">
+      <c r="A273" s="0">
         <v>19.098857236564236</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0">
         <v>15.448294909125808</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0">
         <v>15.108472217927245</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B274">
+    <row r="274" x14ac:dyDescent="0.2">
+      <c r="A274" s="0"/>
+      <c r="B274" s="0">
         <v>23.79520899006727</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0">
         <v>31.30976816028695</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275">
+    <row r="275" x14ac:dyDescent="0.2">
+      <c r="A275" s="0">
         <v>30.766308304656839</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0">
         <v>23.371700178393279</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0">
         <v>29.689442023045199</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="276" x14ac:dyDescent="0.2">
+      <c r="A276" s="0">
         <v>10.930578310863712</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0">
         <v>23.237904155675846</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0">
         <v>80.453452398366977</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277">
+    <row r="277" x14ac:dyDescent="0.2">
+      <c r="A277" s="0">
         <v>30.440229105441876</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0">
         <v>24.086866557972861</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0">
         <v>25.847775088025362</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278">
+    <row r="278" x14ac:dyDescent="0.2">
+      <c r="A278" s="0">
         <v>18.002534779875138</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0">
         <v>21.668672554019043</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0">
         <v>28.298960317785845</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="279" x14ac:dyDescent="0.2">
+      <c r="A279" s="0">
         <v>19.454288486014015</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0">
         <v>22.401183879814191</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0">
         <v>28.569961988651876</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280">
+    <row r="280" x14ac:dyDescent="0.2">
+      <c r="A280" s="0">
         <v>38.046050466090897</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0">
         <v>25.373166387993628</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0">
         <v>25.549134880653668</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281">
+    <row r="281" x14ac:dyDescent="0.2">
+      <c r="A281" s="0">
         <v>25.666939972434605</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0">
         <v>28.874606592012341</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0">
         <v>29.27596145607362</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="282" x14ac:dyDescent="0.2">
+      <c r="A282" s="0">
         <v>28.614679851103681</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0">
         <v>23.924405436723127</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0">
         <v>30.220149304215717</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="283" x14ac:dyDescent="0.2">
+      <c r="A283" s="0">
         <v>35.376138324704769</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0">
         <v>26.541575325745708</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0">
         <v>28.121427717042174</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="284" x14ac:dyDescent="0.2">
+      <c r="A284" s="0">
         <v>25.741132197762333</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0">
         <v>28.542824794471645</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0">
         <v>27.004088307080082</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="285" x14ac:dyDescent="0.2">
+      <c r="A285" s="0">
         <v>24.076905041188766</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0">
         <v>23.73559300479992</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0">
         <v>37.15886797118101</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286">
+    <row r="286" x14ac:dyDescent="0.2">
+      <c r="A286" s="0">
         <v>45.098688259951743</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0">
         <v>28.692996867233401</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0">
         <v>28.969693619052549</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="287" x14ac:dyDescent="0.2">
+      <c r="A287" s="0">
         <v>24.020508053603653</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0">
         <v>26.786666171953058</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0">
         <v>25.597077164703123</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="288" x14ac:dyDescent="0.2">
+      <c r="A288" s="0">
         <v>13.014350799724387</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0">
         <v>25.705083051664491</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0">
         <v>18.596934146733947</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="289" x14ac:dyDescent="0.2">
+      <c r="A289" s="0">
         <v>18.716044028625571</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0">
         <v>21.263617635256811</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0">
         <v>20.169097694710395</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="290" x14ac:dyDescent="0.2">
+      <c r="A290" s="0">
         <v>44.859421132073045</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0">
         <v>26.754871227247769</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0">
         <v>36.733630292336137</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B291">
+    <row r="291" x14ac:dyDescent="0.2">
+      <c r="A291" s="0"/>
+      <c r="B291" s="0">
         <v>26.119799396164741</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0">
         <v>30.664252121267399</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="292" x14ac:dyDescent="0.2">
+      <c r="A292" s="0">
         <v>22.623695734672886</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0">
         <v>23.852468069351158</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0">
         <v>24.510545665557526</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C293">
+    <row r="293" x14ac:dyDescent="0.2">
+      <c r="A293" s="0"/>
+      <c r="B293" s="0"/>
+      <c r="C293" s="0">
         <v>24.597242286036568</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294">
+    <row r="294" x14ac:dyDescent="0.2">
+      <c r="A294" s="0">
         <v>24.286701736815761</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0">
         <v>24.337410934766488</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0">
         <v>30.352804495748504</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295">
+    <row r="295" x14ac:dyDescent="0.2">
+      <c r="A295" s="0">
         <v>26.677717106433473</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0">
         <v>23.777419425678229</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0">
         <v>27.273528031044776</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
+    <row r="296" x14ac:dyDescent="0.2">
+      <c r="A296" s="0">
         <v>25.928742632012412</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="0">
         <v>29.795916503039276</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0">
         <v>29.796622435548127</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
+    <row r="297" x14ac:dyDescent="0.2">
+      <c r="A297" s="0">
         <v>20.620158013316388</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="0">
         <v>23.290177479792625</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0">
         <v>54.669976262530298</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
+    <row r="298" x14ac:dyDescent="0.2">
+      <c r="A298" s="0">
         <v>21.530321382734996</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="0">
         <v>20.639736587177474</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0">
         <v>38.841234577440837</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299">
+    <row r="299" x14ac:dyDescent="0.2">
+      <c r="A299" s="0">
         <v>25.463714209355899</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="0">
         <v>28.961077892616569</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0">
         <v>32.940916921762451</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300">
+    <row r="300" x14ac:dyDescent="0.2">
+      <c r="A300" s="0">
         <v>19.420790183921241</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="0">
         <v>23.389908643479256</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0">
         <v>19.94052588820978</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
+    <row r="301" x14ac:dyDescent="0.2">
+      <c r="A301" s="0">
         <v>22.009755195040793</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="0">
         <v>22.084137119141353</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0">
         <v>21.257342432604794</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302">
+    <row r="302" x14ac:dyDescent="0.2">
+      <c r="A302" s="0">
         <v>40.773324634815786</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="0">
         <v>27.987368981224037</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0">
         <v>27.869597163238453</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303">
+    <row r="303" x14ac:dyDescent="0.2">
+      <c r="A303" s="0">
         <v>27.484307117144073</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="0">
         <v>25.32925614743883</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0">
         <v>29.700972315911667</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304">
+    <row r="304" x14ac:dyDescent="0.2">
+      <c r="A304" s="0">
         <v>37.249908376845724</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="0">
         <v>35.454833608851217</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0">
         <v>30.89731484692858</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305">
+    <row r="305" x14ac:dyDescent="0.2">
+      <c r="A305" s="0">
         <v>25.468150993776788</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="0">
         <v>21.719845584677813</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0">
         <v>23.515973540613906</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="306" x14ac:dyDescent="0.2">
+      <c r="A306" s="0">
         <v>15.387038632136553</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="0">
         <v>14.591753050263089</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0">
         <v>12.628665281153387</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B307">
+    <row r="307" x14ac:dyDescent="0.2">
+      <c r="A307" s="0"/>
+      <c r="B307" s="0">
         <v>53.168410141851524</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0">
         <v>35.755523116534469</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
+    <row r="308" x14ac:dyDescent="0.2">
+      <c r="A308" s="0">
         <v>12.673314415229353</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="0">
         <v>20.013958989599217</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0">
         <v>27.320846915824823</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
+    <row r="309" x14ac:dyDescent="0.2">
+      <c r="A309" s="0">
         <v>41.700091327317402</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="0">
         <v>36.913220814488525</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0">
         <v>24.345163922593716</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310">
+    <row r="310" x14ac:dyDescent="0.2">
+      <c r="A310" s="0">
         <v>23.412779603925507</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="0">
         <v>28.108308230297489</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0">
         <v>23.474990999657351</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
+    <row r="311" x14ac:dyDescent="0.2">
+      <c r="A311" s="0">
         <v>34.061649610052804</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="0">
         <v>25.896436039901875</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0">
         <v>32.803619243409798</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
+    <row r="312" x14ac:dyDescent="0.2">
+      <c r="A312" s="0">
         <v>28.24753908582468</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="0">
         <v>19.679755123817163</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0">
         <v>31.593370240873288</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313">
+    <row r="313" x14ac:dyDescent="0.2">
+      <c r="A313" s="0">
         <v>16.132598506510227</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="0">
         <v>12.407712280979528</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0">
         <v>11.919753808019857</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314">
+    <row r="314" x14ac:dyDescent="0.2">
+      <c r="A314" s="0">
         <v>32.453658036218641</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="0">
         <v>30.657685249543501</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0">
         <v>26.927341623664599</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315">
+    <row r="315" x14ac:dyDescent="0.2">
+      <c r="A315" s="0">
         <v>37.101147912721451</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="0">
         <v>30.738571377224442</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0">
         <v>24.937008637678929</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
+    <row r="316" x14ac:dyDescent="0.2">
+      <c r="A316" s="0">
         <v>38.367058253086768</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="0">
         <v>27.974173493993984</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0">
         <v>31.986078659184443</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317">
+    <row r="317" x14ac:dyDescent="0.2">
+      <c r="A317" s="0">
         <v>38.809818997866387</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="0">
         <v>35.489978209991712</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0">
         <v>37.40542451209452</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318">
+    <row r="318" x14ac:dyDescent="0.2">
+      <c r="A318" s="0">
         <v>26.719095268798849</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="0">
         <v>25.63419873189056</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0">
         <v>36.564645919771039</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319">
+    <row r="319" x14ac:dyDescent="0.2">
+      <c r="A319" s="0">
         <v>28.223518929107637</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="0">
         <v>23.475701219619314</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0">
         <v>28.736248086099064</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320">
+    <row r="320" x14ac:dyDescent="0.2">
+      <c r="A320" s="0">
         <v>31.580237572505418</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="0">
         <v>28.988470748473084</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0">
         <v>30.188476317865938</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321">
+    <row r="321" x14ac:dyDescent="0.2">
+      <c r="A321" s="0">
         <v>23.535224368001831</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="0">
         <v>26.162813678323374</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0">
         <v>27.483332965791945</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322">
+    <row r="322" x14ac:dyDescent="0.2">
+      <c r="A322" s="0">
         <v>17.225042927146866</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="0">
         <v>15.319981302719498</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0">
         <v>19.175448926583996</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323">
+    <row r="323" x14ac:dyDescent="0.2">
+      <c r="A323" s="0">
         <v>44.527012743995314</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="0">
         <v>33.611327473946425</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0">
         <v>35.57026213026279</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="324" x14ac:dyDescent="0.2">
+      <c r="A324" s="0">
         <v>16.352019235062951</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="0">
         <v>15.875652151437231</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0">
         <v>15.512040597741223</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325">
+    <row r="325" x14ac:dyDescent="0.2">
+      <c r="A325" s="0">
         <v>10.59866924072203</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="0">
         <v>14.396589131092577</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0">
         <v>13.19299573755554</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326">
+    <row r="326" x14ac:dyDescent="0.2">
+      <c r="A326" s="0">
         <v>42.383397965480469</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="0">
         <v>30.878165605082557</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0">
         <v>40.946334437437983</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B327">
+    <row r="327" x14ac:dyDescent="0.2">
+      <c r="A327" s="0"/>
+      <c r="B327" s="0">
         <v>21.391017057245516</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0">
         <v>18.329437036716083</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328">
+    <row r="328" x14ac:dyDescent="0.2">
+      <c r="A328" s="0">
         <v>22.45524626210489</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="0">
         <v>25.794363802511324</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0">
         <v>54.331797075052407</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329">
+    <row r="329" x14ac:dyDescent="0.2">
+      <c r="A329" s="0">
         <v>31.967729160156765</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="0">
         <v>36.992574076500802</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0">
         <v>26.700977803211881</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330">
+    <row r="330" x14ac:dyDescent="0.2">
+      <c r="A330" s="0">
         <v>22.509866394416843</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="0">
         <v>19.172330725664569</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0">
         <v>24.11289325861242</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331">
+    <row r="331" x14ac:dyDescent="0.2">
+      <c r="A331" s="0">
         <v>14.139882785036994</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="0">
         <v>20.637310850321267</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0">
         <v>24.532070911084297</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332">
+    <row r="332" x14ac:dyDescent="0.2">
+      <c r="A332" s="0">
         <v>28.529308730172577</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="0">
         <v>79.957978511656677</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0">
         <v>152.33559192671876</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333">
+    <row r="333" x14ac:dyDescent="0.2">
+      <c r="A333" s="0">
         <v>21.432416821038132</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="0">
         <v>36.971170477150949</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0">
         <v>43.152313077242475</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334">
+    <row r="334" x14ac:dyDescent="0.2">
+      <c r="A334" s="0">
         <v>24.977672328430636</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="0">
         <v>20.737097862079676</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0">
         <v>15.235377310772005</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335">
+    <row r="335" x14ac:dyDescent="0.2">
+      <c r="A335" s="0">
         <v>37.245814059862212</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="0">
         <v>28.021027832916815</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0">
         <v>34.096107962770461</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336">
+    <row r="336" x14ac:dyDescent="0.2">
+      <c r="A336" s="0">
         <v>19.030600502855563</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="0">
         <v>29.668378908487938</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0">
         <v>30.484329876786344</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337">
+    <row r="337" x14ac:dyDescent="0.2">
+      <c r="A337" s="0">
         <v>26.260695238119158</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="0">
         <v>19.388085917194285</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0">
         <v>26.558338290827898</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338">
+    <row r="338" x14ac:dyDescent="0.2">
+      <c r="A338" s="0">
         <v>30.18064151700689</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="0">
         <v>20.304348735545318</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0">
         <v>27.46687421563847</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339">
+    <row r="339" x14ac:dyDescent="0.2">
+      <c r="A339" s="0">
         <v>35.684282121883307</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="0">
         <v>44.888481583861541</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0">
         <v>101.2905149309461</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340">
+    <row r="340" x14ac:dyDescent="0.2">
+      <c r="A340" s="0">
         <v>26.747090635590332</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="0">
         <v>19.401546959927842</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0">
         <v>40.633679756066641</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341">
+    <row r="341" x14ac:dyDescent="0.2">
+      <c r="A341" s="0">
         <v>25.879737858150072</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="0">
         <v>27.867056775394389</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0">
         <v>28.560263326333075</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342">
+    <row r="342" x14ac:dyDescent="0.2">
+      <c r="A342" s="0">
         <v>15.221168443112342</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="0">
         <v>14.139073631703496</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0">
         <v>14.789787716682895</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343">
+    <row r="343" x14ac:dyDescent="0.2">
+      <c r="A343" s="0">
         <v>16.114510452570144</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="0">
         <v>19.400262802766054</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0">
         <v>14.597195401076149</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344">
+    <row r="344" x14ac:dyDescent="0.2">
+      <c r="A344" s="0">
         <v>17.229638402201093</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="0">
         <v>15.582789142503314</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0">
         <v>14.871020115093758</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345">
+    <row r="345" x14ac:dyDescent="0.2">
+      <c r="A345" s="0">
         <v>18.080740209472179</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="0">
         <v>14.15832407953209</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0">
         <v>17.499767096340534</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346">
+    <row r="346" x14ac:dyDescent="0.2">
+      <c r="A346" s="0">
         <v>20.841819752674184</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="0">
         <v>19.166055668824072</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0">
         <v>19.957443882990525</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347">
+    <row r="347" x14ac:dyDescent="0.2">
+      <c r="A347" s="0">
         <v>18.221908500924506</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="0">
         <v>18.510582254379425</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0">
         <v>18.493672321853666</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348">
+    <row r="348" x14ac:dyDescent="0.2">
+      <c r="A348" s="0">
         <v>21.03737269765497</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="0">
         <v>17.112386833844571</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0">
         <v>21.148861265979306</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349">
+    <row r="349" x14ac:dyDescent="0.2">
+      <c r="A349" s="0">
         <v>20.256519083247316</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="0">
         <v>20.837693181184086</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0">
         <v>20.660650228702629</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350">
+    <row r="350" x14ac:dyDescent="0.2">
+      <c r="A350" s="0">
         <v>20.794775819983485</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="0">
         <v>18.693824323102419</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0">
         <v>19.812151253079101</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351">
+    <row r="351" x14ac:dyDescent="0.2">
+      <c r="A351" s="0">
         <v>18.856027474180475</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="0">
         <v>18.78663103808983</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0">
         <v>19.483371225077658</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352">
+    <row r="352" x14ac:dyDescent="0.2">
+      <c r="A352" s="0">
         <v>18.108004408589011</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="0">
         <v>18.515843240461006</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0">
         <v>17.239570908542639</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353">
+    <row r="353" x14ac:dyDescent="0.2">
+      <c r="A353" s="0">
         <v>21.120307903657793</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="0">
         <v>22.451459511797989</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0">
         <v>21.662683903557419</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354">
+    <row r="354" x14ac:dyDescent="0.2">
+      <c r="A354" s="0">
         <v>20.612694868702473</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="0">
         <v>20.141420307856762</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="0">
         <v>24.587273422400607</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355">
+    <row r="355" x14ac:dyDescent="0.2">
+      <c r="A355" s="0">
         <v>19.241980086901808</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="0">
         <v>17.349398783782831</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="0">
         <v>20.548401050692746</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356">
+    <row r="356" x14ac:dyDescent="0.2">
+      <c r="A356" s="0">
         <v>20.29603134372935</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="0">
         <v>24.799754054584657</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="0">
         <v>22.577132256147369</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357">
+    <row r="357" x14ac:dyDescent="0.2">
+      <c r="A357" s="0">
         <v>20.722617437928612</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="0">
         <v>17.629455410635945</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="0">
         <v>18.655905681945978</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358">
+    <row r="358" x14ac:dyDescent="0.2">
+      <c r="A358" s="0">
         <v>21.209941690641656</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="0">
         <v>21.206390675508008</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="0">
         <v>19.45660649806829</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359">
+    <row r="359" x14ac:dyDescent="0.2">
+      <c r="A359" s="0">
         <v>25.40531107256993</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="0">
         <v>22.921707603990004</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="0">
         <v>21.580329928798943</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360">
+    <row r="360" x14ac:dyDescent="0.2">
+      <c r="A360" s="0">
         <v>22.36573436296392</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="0">
         <v>20.746642418606367</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="0">
         <v>21.678391319799619</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361">
+    <row r="361" x14ac:dyDescent="0.2">
+      <c r="A361" s="0">
         <v>21.022809923908721</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="0">
         <v>18.999700629329471</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="0">
         <v>19.44931092200493</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362">
+    <row r="362" x14ac:dyDescent="0.2">
+      <c r="A362" s="0">
         <v>24.885280097126241</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="0">
         <v>23.849567519774695</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="0">
         <v>24.999880653856128</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363">
+    <row r="363" x14ac:dyDescent="0.2">
+      <c r="A363" s="0">
         <v>25.117459487194758</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="0">
         <v>19.679862089969845</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="0">
         <v>20.797168151786565</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364">
+    <row r="364" x14ac:dyDescent="0.2">
+      <c r="A364" s="0">
         <v>22.989659744426717</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="0">
         <v>22.178934494380563</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="0">
         <v>21.904521904775141</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365">
+    <row r="365" x14ac:dyDescent="0.2">
+      <c r="A365" s="0">
         <v>20.968628775289289</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="0">
         <v>21.987103024195125</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="0">
         <v>22.708696932265589</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366">
+    <row r="366" x14ac:dyDescent="0.2">
+      <c r="A366" s="0">
         <v>20.15413305520492</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="0">
         <v>21.568737533454744</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="0">
         <v>22.622010215162771</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367">
+    <row r="367" x14ac:dyDescent="0.2">
+      <c r="A367" s="0">
         <v>26.467645989855736</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="0">
         <v>25.353788219234637</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="0">
         <v>20.886672188065884</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368">
+    <row r="368" x14ac:dyDescent="0.2">
+      <c r="A368" s="0">
         <v>16.997249812149104</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="0">
         <v>15.948227844336241</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="0">
         <v>17.1985353564178</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369">
+    <row r="369" x14ac:dyDescent="0.2">
+      <c r="A369" s="0">
         <v>19.713259318900203</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="0">
         <v>16.008562000549038</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="0">
         <v>18.795922891329173</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370">
+    <row r="370" x14ac:dyDescent="0.2">
+      <c r="A370" s="0">
         <v>22.554948898319733</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="0">
         <v>22.458108717552275</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="0">
         <v>20.95168528480205</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371">
+    <row r="371" x14ac:dyDescent="0.2">
+      <c r="A371" s="0">
         <v>24.323326456886097</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="0">
         <v>20.673582401084982</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="0">
         <v>21.548265379971181</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372">
+    <row r="372" x14ac:dyDescent="0.2">
+      <c r="A372" s="0">
         <v>22.134567089126307</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="0">
         <v>21.25180774110159</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="0">
         <v>25.755109268921572</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
+    <row r="373" x14ac:dyDescent="0.2">
+      <c r="A373" s="0">
         <v>26.560252907981482</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="0">
         <v>24.354459251757241</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="0">
         <v>26.049241984161782</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374">
+    <row r="374" x14ac:dyDescent="0.2">
+      <c r="A374" s="0">
         <v>25.163299031799212</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="0">
         <v>23.88436605556473</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="0">
         <v>28.276236666626023</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375">
+    <row r="375" x14ac:dyDescent="0.2">
+      <c r="A375" s="0">
         <v>24.388017434241714</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="0">
         <v>19.002866782804375</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="0">
         <v>24.743693410638411</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376">
+    <row r="376" x14ac:dyDescent="0.2">
+      <c r="A376" s="0">
         <v>26.908891216980667</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="0">
         <v>19.339517119278234</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="0">
         <v>22.109653766058255</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377">
+    <row r="377" x14ac:dyDescent="0.2">
+      <c r="A377" s="0">
         <v>31.994216321122913</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="0">
         <v>21.437581252597461</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="0">
         <v>23.927629720338345</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378">
+    <row r="378" x14ac:dyDescent="0.2">
+      <c r="A378" s="0">
         <v>18.998480957818114</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="0">
         <v>20.206390820700747</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="0">
         <v>23.709031349145476</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379">
+    <row r="379" x14ac:dyDescent="0.2">
+      <c r="A379" s="0">
         <v>25.983201589627921</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="0">
         <v>22.600451685011201</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="0">
         <v>28.191915441025476</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380">
+    <row r="380" x14ac:dyDescent="0.2">
+      <c r="A380" s="0">
         <v>21.794248938967709</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="0">
         <v>24.534161706761687</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="0">
         <v>23.939152458548921</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381">
+    <row r="381" x14ac:dyDescent="0.2">
+      <c r="A381" s="0">
         <v>23.730610087703017</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="0">
         <v>23.4633560076213</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="0">
         <v>22.105727072380603</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382">
+    <row r="382" x14ac:dyDescent="0.2">
+      <c r="A382" s="0">
         <v>23.28735525667863</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="0">
         <v>24.583509460577179</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="0">
         <v>32.538298760455966</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383">
+    <row r="383" x14ac:dyDescent="0.2">
+      <c r="A383" s="0">
         <v>22.286896524878884</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="0">
         <v>24.925196408170518</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="0">
         <v>25.39729171103577</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384">
+    <row r="384" x14ac:dyDescent="0.2">
+      <c r="A384" s="0">
         <v>24.943640582404111</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="0">
         <v>30.405986573910297</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="0">
         <v>26.277925547757977</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385">
+    <row r="385" x14ac:dyDescent="0.2">
+      <c r="A385" s="0">
         <v>27.4973666690091</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="0">
         <v>22.117143831913072</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="0">
         <v>26.339519257540545</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386">
+    <row r="386" x14ac:dyDescent="0.2">
+      <c r="A386" s="0">
         <v>20.801799599011879</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="0">
         <v>26.070152601521272</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="0">
         <v>26.044992109527943</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387">
+    <row r="387" x14ac:dyDescent="0.2">
+      <c r="A387" s="0">
         <v>20.615433387602319</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="0">
         <v>27.504374007968746</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="0">
         <v>21.492822030553501</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388">
+    <row r="388" x14ac:dyDescent="0.2">
+      <c r="A388" s="0">
         <v>20.809712196393573</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="0">
         <v>22.163024440938727</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="0">
         <v>24.196703422741546</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389">
+    <row r="389" x14ac:dyDescent="0.2">
+      <c r="A389" s="0">
         <v>24.193148032889759</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="0">
         <v>36.820302179840127</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="0">
         <v>36.513169836577738</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390">
+    <row r="390" x14ac:dyDescent="0.2">
+      <c r="A390" s="0">
         <v>21.257756927902907</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="0">
         <v>22.987482267998718</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="0">
         <v>22.621661483116668</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391">
+    <row r="391" x14ac:dyDescent="0.2">
+      <c r="A391" s="0">
         <v>22.07750266505111</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="0">
         <v>26.03862580556973</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="0">
         <v>27.670287001455332</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392">
+    <row r="392" x14ac:dyDescent="0.2">
+      <c r="A392" s="0">
         <v>25.807578216936058</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="0">
         <v>25.580473941638516</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="0">
         <v>26.014793740364318</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393">
+    <row r="393" x14ac:dyDescent="0.2">
+      <c r="A393" s="0">
         <v>25.363263669737783</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="0">
         <v>23.123289946439204</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="0">
         <v>26.485389320898051</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394">
+    <row r="394" x14ac:dyDescent="0.2">
+      <c r="A394" s="0">
         <v>27.034691885534649</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="0">
         <v>26.54223676224057</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="0">
         <v>27.912172888017544</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395">
+    <row r="395" x14ac:dyDescent="0.2">
+      <c r="A395" s="0">
         <v>22.945031300099856</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="0">
         <v>21.604288225302518</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="0">
         <v>25.649840123226074</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396">
+    <row r="396" x14ac:dyDescent="0.2">
+      <c r="A396" s="0">
         <v>27.07703148856044</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="0">
         <v>23.707576508005534</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="0">
         <v>29.717257808037523</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397">
+    <row r="397" x14ac:dyDescent="0.2">
+      <c r="A397" s="0">
         <v>26.618979855799527</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="0">
         <v>25.303487830537541</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="0">
         <v>21.569404719203717</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398">
+    <row r="398" x14ac:dyDescent="0.2">
+      <c r="A398" s="0">
         <v>29.590307455282343</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="0">
         <v>24.5803428370373</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="0">
         <v>29.401560537878698</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399">
+    <row r="399" x14ac:dyDescent="0.2">
+      <c r="A399" s="0">
         <v>21.764776161207962</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="0">
         <v>26.94274631368377</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="0">
         <v>24.560160395123713</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400">
+    <row r="400" x14ac:dyDescent="0.2">
+      <c r="A400" s="0">
         <v>29.430505893410732</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="0">
         <v>29.906427463611454</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="0">
         <v>27.262549987745125</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401">
+    <row r="401" x14ac:dyDescent="0.2">
+      <c r="A401" s="0">
         <v>18.272731761884366</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="0">
         <v>21.048713226209504</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="0">
         <v>22.533983968580998</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402">
+    <row r="402" x14ac:dyDescent="0.2">
+      <c r="A402" s="0">
         <v>29.104164074679467</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="0">
         <v>26.128191219049324</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="0">
         <v>31.456848007622309</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403">
+    <row r="403" x14ac:dyDescent="0.2">
+      <c r="A403" s="0">
         <v>29.663764855757847</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="0">
         <v>28.380029042950657</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="0">
         <v>28.234611833349121</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404">
+    <row r="404" x14ac:dyDescent="0.2">
+      <c r="A404" s="0">
         <v>27.100250701162274</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="0">
         <v>32.858682985994022</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="0">
         <v>31.680381934951416</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405">
+    <row r="405" x14ac:dyDescent="0.2">
+      <c r="A405" s="0">
         <v>20.218656447213409</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="0">
         <v>25.732869497989931</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="0">
         <v>24.622599638814211</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406">
+    <row r="406" x14ac:dyDescent="0.2">
+      <c r="A406" s="0">
         <v>26.838138310389265</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="0">
         <v>31.468519026484984</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="0">
         <v>25.976041039759757</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407">
+    <row r="407" x14ac:dyDescent="0.2">
+      <c r="A407" s="0">
         <v>26.024415917322351</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="0">
         <v>25.393319741704268</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="0">
         <v>30.098516649427189</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408">
+    <row r="408" x14ac:dyDescent="0.2">
+      <c r="A408" s="0">
         <v>26.545090704187125</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="0">
         <v>35.72006327999717</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="0">
         <v>25.568116142757248</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409">
+    <row r="409" x14ac:dyDescent="0.2">
+      <c r="A409" s="0">
         <v>22.887952424963785</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="0">
         <v>20.862134111442717</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="0">
         <v>31.975954857935605</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410">
+    <row r="410" x14ac:dyDescent="0.2">
+      <c r="A410" s="0">
         <v>26.412006796893685</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="0">
         <v>25.343693254814365</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="0">
         <v>32.32747538688335</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411">
+    <row r="411" x14ac:dyDescent="0.2">
+      <c r="A411" s="0">
         <v>24.573967546879651</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="0">
         <v>25.559273573129733</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="0">
         <v>29.88898847342892</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412">
+    <row r="412" x14ac:dyDescent="0.2">
+      <c r="A412" s="0">
         <v>22.561409610291189</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="0">
         <v>32.566294594541887</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="0">
         <v>25.961788276584528</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413">
+    <row r="413" x14ac:dyDescent="0.2">
+      <c r="A413" s="0">
         <v>29.138711920194027</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="0">
         <v>29.647916803849842</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="0">
         <v>26.872379886237937</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414">
+    <row r="414" x14ac:dyDescent="0.2">
+      <c r="A414" s="0">
         <v>29.194303806678008</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="0">
         <v>27.086907077234869</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="0">
         <v>25.997555661905754</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415">
+    <row r="415" x14ac:dyDescent="0.2">
+      <c r="A415" s="0">
         <v>25.057612577583868</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="0">
         <v>24.904842363291291</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="0">
         <v>27.207872598990775</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416">
+    <row r="416" x14ac:dyDescent="0.2">
+      <c r="A416" s="0">
         <v>29.162841457898875</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="0">
         <v>30.772689670971168</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="0">
         <v>36.947079151350685</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417">
+    <row r="417" x14ac:dyDescent="0.2">
+      <c r="A417" s="0">
         <v>28.483436565633124</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="0">
         <v>22.63979680059991</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="0">
         <v>25.777059872456348</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418">
+    <row r="418" x14ac:dyDescent="0.2">
+      <c r="A418" s="0">
         <v>24.244476476097077</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="0">
         <v>28.641905945074281</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="0">
         <v>25.514223340577253</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419">
+    <row r="419" x14ac:dyDescent="0.2">
+      <c r="A419" s="0">
         <v>18.400881299827454</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="0">
         <v>24.987078435111208</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="0">
         <v>23.104689545951516</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420">
+    <row r="420" x14ac:dyDescent="0.2">
+      <c r="A420" s="0">
         <v>16.381453787179215</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="0">
         <v>22.15245545190578</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="0">
         <v>23.007933732769104</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421">
+    <row r="421" x14ac:dyDescent="0.2">
+      <c r="A421" s="0">
         <v>23.114306782551623</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="0">
         <v>40.555817580197413</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="0">
         <v>27.466648997408708</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422">
+    <row r="422" x14ac:dyDescent="0.2">
+      <c r="A422" s="0">
         <v>21.736509588421139</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="0">
         <v>25.062645042603918</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="0">
         <v>28.415786943274078</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423">
+    <row r="423" x14ac:dyDescent="0.2">
+      <c r="A423" s="0">
         <v>23.337437844301014</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="0">
         <v>23.35051304592637</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="0">
         <v>41.435759955308463</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424">
+    <row r="424" x14ac:dyDescent="0.2">
+      <c r="A424" s="0">
         <v>29.791462493126595</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="0">
         <v>20.65209229983877</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="0">
         <v>27.903046059149389</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425">
+    <row r="425" x14ac:dyDescent="0.2">
+      <c r="A425" s="0">
         <v>21.813081788029905</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="0">
         <v>20.049696134725103</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="0">
         <v>31.695876969761724</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="426" x14ac:dyDescent="0.2">
+      <c r="A426" s="0">
         <v>17.785025717263714</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="0">
         <v>25.965561196241431</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="0">
         <v>25.299096107652652</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427">
+    <row r="427" x14ac:dyDescent="0.2">
+      <c r="A427" s="0">
         <v>24.563737790699026</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="0">
         <v>27.918494929224632</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="0">
         <v>25.584911580187956</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428">
+    <row r="428" x14ac:dyDescent="0.2">
+      <c r="A428" s="0">
         <v>29.00788421045133</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="0">
         <v>27.137608167116227</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="0">
         <v>33.217496169596544</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429">
+    <row r="429" x14ac:dyDescent="0.2">
+      <c r="A429" s="0">
         <v>24.774154168131986</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="0">
         <v>29.714557436398547</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="0">
         <v>26.737395273894656</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430">
+    <row r="430" x14ac:dyDescent="0.2">
+      <c r="A430" s="0">
         <v>42.938378808909995</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="0">
         <v>26.474700789373223</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="0">
         <v>23.161283613745841</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431">
+    <row r="431" x14ac:dyDescent="0.2">
+      <c r="A431" s="0">
         <v>45.068680674833203</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="0">
         <v>30.306611651347559</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="0">
         <v>27.892051907489105</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432">
+    <row r="432" x14ac:dyDescent="0.2">
+      <c r="A432" s="0">
         <v>27.348734059112928</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="0">
         <v>30.328170895908904</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="0">
         <v>27.818573624378214</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433">
+    <row r="433" x14ac:dyDescent="0.2">
+      <c r="A433" s="0">
         <v>28.332985284993434</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="0">
         <v>33.196964699656974</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="0">
         <v>32.11338352213037</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434">
+    <row r="434" x14ac:dyDescent="0.2">
+      <c r="A434" s="0">
         <v>50.98274121259994</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="0">
         <v>36.308816225600268</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="0">
         <v>26.329121797084753</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435">
+    <row r="435" x14ac:dyDescent="0.2">
+      <c r="A435" s="0">
         <v>30.373770458450892</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="0">
         <v>27.354508155723106</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="0">
         <v>33.9425233829663</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436">
+    <row r="436" x14ac:dyDescent="0.2">
+      <c r="A436" s="0">
         <v>26.935180599426673</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="0">
         <v>23.766120688338578</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="0">
         <v>30.97495408417517</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437">
+    <row r="437" x14ac:dyDescent="0.2">
+      <c r="A437" s="0">
         <v>21.402629977996021</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="0">
         <v>26.734163535809095</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="0">
         <v>22.94705661680306</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438">
+    <row r="438" x14ac:dyDescent="0.2">
+      <c r="A438" s="0">
         <v>20.682461032670901</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="0">
         <v>34.494405956044176</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="0">
         <v>28.960722433225893</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439">
+    <row r="439" x14ac:dyDescent="0.2">
+      <c r="A439" s="0">
         <v>24.199492630887551</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="0">
         <v>26.078214590797025</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="0">
         <v>26.253258736994077</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440">
+    <row r="440" x14ac:dyDescent="0.2">
+      <c r="A440" s="0">
         <v>25.184655611433318</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="0">
         <v>21.976172899943702</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="0">
         <v>24.846067311696906</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441">
+    <row r="441" x14ac:dyDescent="0.2">
+      <c r="A441" s="0">
         <v>28.570201098864459</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="0">
         <v>36.016538761240213</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="0">
         <v>35.638503976172856</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442">
+    <row r="442" x14ac:dyDescent="0.2">
+      <c r="A442" s="0">
         <v>24.603038613756109</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="0">
         <v>34.658910308245055</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="0">
         <v>41.383549219188502</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443">
+    <row r="443" x14ac:dyDescent="0.2">
+      <c r="A443" s="0">
         <v>21.074499003551487</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="0">
         <v>23.416957624535456</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="0">
         <v>22.762766702818077</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444">
+    <row r="444" x14ac:dyDescent="0.2">
+      <c r="A444" s="0">
         <v>29.439495102828793</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="0">
         <v>22.857099940117291</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="0">
         <v>24.153809826472035</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445">
+    <row r="445" x14ac:dyDescent="0.2">
+      <c r="A445" s="0">
         <v>28.433179877319446</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="0">
         <v>29.971773167002738</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="0">
         <v>22.1685233090504</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446">
+    <row r="446" x14ac:dyDescent="0.2">
+      <c r="A446" s="0">
         <v>32.852897051180967</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="0">
         <v>33.991283982532387</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="0">
         <v>33.959631226873462</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447">
+    <row r="447" x14ac:dyDescent="0.2">
+      <c r="A447" s="0">
         <v>31.842170035870019</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="0">
         <v>35.959117986629735</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="0">
         <v>36.443921042258012</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448">
+    <row r="448" x14ac:dyDescent="0.2">
+      <c r="A448" s="0">
         <v>34.382127736880989</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="0">
         <v>26.60133992522201</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="0">
         <v>45.7871440168622</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449">
+    <row r="449" x14ac:dyDescent="0.2">
+      <c r="A449" s="0">
         <v>24.253562605773833</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="0">
         <v>34.052846939603128</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="0">
         <v>25.223247803374075</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450">
+    <row r="450" x14ac:dyDescent="0.2">
+      <c r="A450" s="0">
         <v>34.232035097382294</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="0">
         <v>27.692492083206702</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="0">
         <v>30.842904138113017</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451">
+    <row r="451" x14ac:dyDescent="0.2">
+      <c r="A451" s="0">
         <v>33.436392135335993</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="0">
         <v>23.83126809277114</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="0">
         <v>42.059951603246319</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452">
+    <row r="452" x14ac:dyDescent="0.2">
+      <c r="A452" s="0">
         <v>44.923191919934546</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="0">
         <v>23.810642891673698</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="0">
         <v>32.870774545660744</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453">
+    <row r="453" x14ac:dyDescent="0.2">
+      <c r="A453" s="0">
         <v>43.921340552875911</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="0">
         <v>31.40404883608478</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="0">
         <v>31.700544720742837</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454">
+    <row r="454" x14ac:dyDescent="0.2">
+      <c r="A454" s="0">
         <v>29.172495575188965</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="0">
         <v>25.831468486050614</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="0">
         <v>31.197742397011854</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455">
+    <row r="455" x14ac:dyDescent="0.2">
+      <c r="A455" s="0">
         <v>30.289055598406257</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="0">
         <v>30.648944433967205</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="0">
         <v>46.160478747372991</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456">
+    <row r="456" x14ac:dyDescent="0.2">
+      <c r="A456" s="0">
         <v>26.407434624667204</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="0">
         <v>33.265556124909715</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="0">
         <v>31.939591265055544</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457">
+    <row r="457" x14ac:dyDescent="0.2">
+      <c r="A457" s="0">
         <v>44.40160699096559</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="0">
         <v>43.877333973255105</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="0">
         <v>44.343564588464417</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458">
+    <row r="458" x14ac:dyDescent="0.2">
+      <c r="A458" s="0">
         <v>35.685795100561812</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="0">
         <v>32.576867717294242</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="0">
         <v>26.580884170497388</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459">
+    <row r="459" x14ac:dyDescent="0.2">
+      <c r="A459" s="0">
         <v>32.879442104558294</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="0">
         <v>30.984373159742134</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="0">
         <v>30.810211549522549</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460">
+    <row r="460" x14ac:dyDescent="0.2">
+      <c r="A460" s="0">
         <v>28.906492809944396</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="0">
         <v>35.643918891124059</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="0">
         <v>34.64499574904692</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461">
+    <row r="461" x14ac:dyDescent="0.2">
+      <c r="A461" s="0">
         <v>25.02904387854451</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="0">
         <v>34.270770232121748</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="0">
         <v>30.313011506039384</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462">
+    <row r="462" x14ac:dyDescent="0.2">
+      <c r="A462" s="0">
         <v>46.741329645694222</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="0">
         <v>26.377537377701358</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="0">
         <v>36.705904690202729</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463">
+    <row r="463" x14ac:dyDescent="0.2">
+      <c r="A463" s="0">
         <v>26.953466088030599</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="0">
         <v>25.874635241875918</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="0">
         <v>35.090323401351547</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464">
+    <row r="464" x14ac:dyDescent="0.2">
+      <c r="A464" s="0">
         <v>33.839660748651617</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="0">
         <v>29.90159660232522</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="0">
         <v>35.038799327440927</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465">
+    <row r="465" x14ac:dyDescent="0.2">
+      <c r="A465" s="0">
         <v>33.675881034166473</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="0">
         <v>52.01458632653754</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="0">
         <v>33.486300979863429</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466">
+    <row r="466" x14ac:dyDescent="0.2">
+      <c r="A466" s="0">
         <v>36.622107464061784</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="0">
         <v>28.0530205844439</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="0">
         <v>31.28334451434316</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467">
+    <row r="467" x14ac:dyDescent="0.2">
+      <c r="A467" s="0">
         <v>34.132498659810715</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="0">
         <v>29.892346454364127</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="0">
         <v>27.458982200144348</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468">
+    <row r="468" x14ac:dyDescent="0.2">
+      <c r="A468" s="0">
         <v>17.569162458206584</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="0">
         <v>23.302288269020686</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="0">
         <v>19.527518931794095</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469">
+    <row r="469" x14ac:dyDescent="0.2">
+      <c r="A469" s="0">
         <v>33.468798337324451</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="0">
         <v>26.914630580267222</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="0">
         <v>33.614586904535464</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470">
+    <row r="470" x14ac:dyDescent="0.2">
+      <c r="A470" s="0">
         <v>36.676298611801045</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="0">
         <v>25.239450810490219</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="0">
         <v>24.970167808202469</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471">
+    <row r="471" x14ac:dyDescent="0.2">
+      <c r="A471" s="0">
         <v>28.020279170908644</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="0">
         <v>32.480263137850052</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="0">
         <v>27.989228205598195</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472">
+    <row r="472" x14ac:dyDescent="0.2">
+      <c r="A472" s="0">
         <v>20.560476849035155</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="0">
         <v>30.238030438060623</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="0">
         <v>29.772419154091391</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473">
+    <row r="473" x14ac:dyDescent="0.2">
+      <c r="A473" s="0">
         <v>31.042479751129076</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="0">
         <v>29.95288875669879</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="0">
         <v>35.639581745134386</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474">
+    <row r="474" x14ac:dyDescent="0.2">
+      <c r="A474" s="0">
         <v>32.517719986934125</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="0">
         <v>27.339900518907722</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="0">
         <v>38.645123003554417</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475">
+    <row r="475" x14ac:dyDescent="0.2">
+      <c r="A475" s="0">
         <v>46.759102257763807</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="0">
         <v>33.555443513638984</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="0">
         <v>22.159544710436883</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476">
+    <row r="476" x14ac:dyDescent="0.2">
+      <c r="A476" s="0">
         <v>27.229696413290657</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="0">
         <v>28.921084916422483</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="0">
         <v>44.216971722067662</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477">
+    <row r="477" x14ac:dyDescent="0.2">
+      <c r="A477" s="0">
         <v>26.319659303920158</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="0">
         <v>27.131032998863422</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="0">
         <v>27.515019089666911</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478">
+    <row r="478" x14ac:dyDescent="0.2">
+      <c r="A478" s="0">
         <v>36.157455525676681</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="0">
         <v>37.940426989581745</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="0">
         <v>40.518060650344985</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479">
+    <row r="479" x14ac:dyDescent="0.2">
+      <c r="A479" s="0">
         <v>46.866350459438443</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="0">
         <v>40.783728127051504</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="0">
         <v>36.75503196522984</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480">
+    <row r="480" x14ac:dyDescent="0.2">
+      <c r="A480" s="0">
         <v>21.915229500376071</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="0">
         <v>18.835636794662481</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="0">
         <v>25.883918767183598</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481">
+    <row r="481" x14ac:dyDescent="0.2">
+      <c r="A481" s="0">
         <v>40.935005934101348</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="0">
         <v>33.458488422956584</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="0">
         <v>37.624087820461313</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482">
+    <row r="482" x14ac:dyDescent="0.2">
+      <c r="A482" s="0">
         <v>38.369902231942426</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="0">
         <v>53.437869239595784</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="0">
         <v>48.631482009486383</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483">
+    <row r="483" x14ac:dyDescent="0.2">
+      <c r="A483" s="0">
         <v>37.4315502261463</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="0">
         <v>36.254900503321785</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="0">
         <v>41.057327578345067</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484">
+    <row r="484" x14ac:dyDescent="0.2">
+      <c r="A484" s="0">
         <v>28.446532429629535</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="0">
         <v>35.856909217419414</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="0">
         <v>32.671755952721497</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485">
+    <row r="485" x14ac:dyDescent="0.2">
+      <c r="A485" s="0">
         <v>28.045790863850758</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="0">
         <v>39.969348264357876</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="0">
         <v>39.033660547883827</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486">
+    <row r="486" x14ac:dyDescent="0.2">
+      <c r="A486" s="0">
         <v>33.260655632977254</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="0">
         <v>30.520030169329736</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="0">
         <v>39.360268388037412</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487">
+    <row r="487" x14ac:dyDescent="0.2">
+      <c r="A487" s="0">
         <v>37.879473984168818</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="0">
         <v>30.925906361575812</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="0">
         <v>23.198700275755098</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488">
+    <row r="488" x14ac:dyDescent="0.2">
+      <c r="A488" s="0">
         <v>33.46612002461972</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="0">
         <v>27.370090210472991</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="0">
         <v>34.667190039284037</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489">
+    <row r="489" x14ac:dyDescent="0.2">
+      <c r="A489" s="0">
         <v>52.492800410193404</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="0">
         <v>40.696535425719034</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="0">
         <v>40.180163792375588</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490">
+    <row r="490" x14ac:dyDescent="0.2">
+      <c r="A490" s="0">
         <v>30.348822065618251</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="0">
         <v>33.367725553157605</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="0">
         <v>32.245785127612208</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491">
+    <row r="491" x14ac:dyDescent="0.2">
+      <c r="A491" s="0">
         <v>35.300554092263482</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="0">
         <v>36.695962791886181</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="0">
         <v>40.373551116376547</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492">
+    <row r="492" x14ac:dyDescent="0.2">
+      <c r="A492" s="0">
         <v>37.112849675714315</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="0">
         <v>106.37190708042083</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="0">
         <v>38.739742612839265</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493">
+    <row r="493" x14ac:dyDescent="0.2">
+      <c r="A493" s="0">
         <v>26.081184030725293</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="0">
         <v>34.628010278723544</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="0">
         <v>43.049619040331997</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494">
+    <row r="494" x14ac:dyDescent="0.2">
+      <c r="A494" s="0">
         <v>32.010509307477278</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="0">
         <v>25.564610885021249</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="0">
         <v>31.936500958542283</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495">
+    <row r="495" x14ac:dyDescent="0.2">
+      <c r="A495" s="0">
         <v>41.704500755573271</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="0">
         <v>35.968885577935097</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="0">
         <v>61.140416732650166</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496">
+    <row r="496" x14ac:dyDescent="0.2">
+      <c r="A496" s="0">
         <v>39.545858107032892</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="0">
         <v>19.467045776118347</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="0">
         <v>34.910077896372606</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497">
+    <row r="497" x14ac:dyDescent="0.2">
+      <c r="A497" s="0">
         <v>22.71397099500053</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="0">
         <v>75.268552002230408</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="0">
         <v>45.063336860877087</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498">
+    <row r="498" x14ac:dyDescent="0.2">
+      <c r="A498" s="0">
         <v>29.152059876190329</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="0">
         <v>30.153915289332627</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="0">
         <v>36.171231785677286</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499">
+    <row r="499" x14ac:dyDescent="0.2">
+      <c r="A499" s="0">
         <v>34.800110230154679</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="0">
         <v>52.638664090063294</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="0">
         <v>44.064377297198909</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500">
+    <row r="500" x14ac:dyDescent="0.2">
+      <c r="A500" s="0">
         <v>38.119739650574203</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="0">
         <v>46.507801698520453</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="0">
         <v>39.405529802771419</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501">
+    <row r="501" x14ac:dyDescent="0.2">
+      <c r="A501" s="0">
         <v>23.657240891146493</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="0">
         <v>40.502284888412042</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="0">
         <v>23.485934639666016</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502">
+    <row r="502" x14ac:dyDescent="0.2">
+      <c r="A502" s="0">
         <v>33.206754380122263</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="0">
         <v>80.642502321177432</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="0">
         <v>43.150853913828591</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503">
+    <row r="503" x14ac:dyDescent="0.2">
+      <c r="A503" s="0">
         <v>18.104658376665171</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="0">
         <v>25.727822392900151</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="0">
         <v>22.005501894558801</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504">
+    <row r="504" x14ac:dyDescent="0.2">
+      <c r="A504" s="0">
         <v>30.881032532797715</v>
       </c>
-      <c r="C504">
+      <c r="B504" s="0"/>
+      <c r="C504" s="0">
         <v>25.213203958010823</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505">
+    <row r="505" x14ac:dyDescent="0.2">
+      <c r="A505" s="0">
         <v>43.747333402806191</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="0">
         <v>28.216493572511922</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="0">
         <v>37.976405104233216</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506">
+    <row r="506" x14ac:dyDescent="0.2">
+      <c r="A506" s="0">
         <v>39.633825444835537</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="0">
         <v>37.880105344545385</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="0">
         <v>35.051781569297304</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507">
+    <row r="507" x14ac:dyDescent="0.2">
+      <c r="A507" s="0">
         <v>22.24041122191138</v>
       </c>
-      <c r="B507">
+      <c r="B507" s="0">
         <v>36.376029873879517</v>
       </c>
-      <c r="C507">
+      <c r="C507" s="0">
         <v>19.339644868014119</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508">
+    <row r="508" x14ac:dyDescent="0.2">
+      <c r="A508" s="0">
         <v>42.8046236206755</v>
       </c>
-      <c r="B508">
+      <c r="B508" s="0">
         <v>44.223819755742774</v>
       </c>
-      <c r="C508">
+      <c r="C508" s="0">
         <v>38.338816619158962</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509">
+    <row r="509" x14ac:dyDescent="0.2">
+      <c r="A509" s="0">
         <v>28.126952256636311</v>
       </c>
-      <c r="B509">
+      <c r="B509" s="0">
         <v>31.478742231637494</v>
       </c>
-      <c r="C509">
+      <c r="C509" s="0">
         <v>34.538246758332761</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510">
+    <row r="510" x14ac:dyDescent="0.2">
+      <c r="A510" s="0">
         <v>38.999649385412944</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="0">
         <v>39.772097377779104</v>
       </c>
-      <c r="C510">
+      <c r="C510" s="0">
         <v>53.227710144289432</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511">
+    <row r="511" x14ac:dyDescent="0.2">
+      <c r="A511" s="0">
         <v>43.106970553235101</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="0">
         <v>89.254879448237631</v>
       </c>
-      <c r="C511">
+      <c r="C511" s="0">
         <v>39.082758678628664</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512">
+    <row r="512" x14ac:dyDescent="0.2">
+      <c r="A512" s="0">
         <v>54.744700159578812</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="0">
         <v>50.871613753746779</v>
       </c>
-      <c r="C512">
+      <c r="C512" s="0">
         <v>38.990827284856472</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513">
+    <row r="513" x14ac:dyDescent="0.2">
+      <c r="A513" s="0">
         <v>26.897286130215509</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="0">
         <v>24.091596613482395</v>
       </c>
-      <c r="C513">
+      <c r="C513" s="0">
         <v>18.217902936296543</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514">
+    <row r="514" x14ac:dyDescent="0.2">
+      <c r="A514" s="0">
         <v>20.048450069524538</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="0">
         <v>39.320015124206137</v>
       </c>
-      <c r="C514">
+      <c r="C514" s="0">
         <v>35.885853442139059</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515">
+    <row r="515" x14ac:dyDescent="0.2">
+      <c r="A515" s="0">
         <v>37.655197096592865</v>
       </c>
-      <c r="B515">
+      <c r="B515" s="0">
         <v>42.411408329570932</v>
       </c>
-      <c r="C515">
+      <c r="C515" s="0">
         <v>40.720674011110646</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516">
+    <row r="516" x14ac:dyDescent="0.2">
+      <c r="A516" s="0">
         <v>38.633666054337255</v>
       </c>
-      <c r="C516">
+      <c r="B516" s="0"/>
+      <c r="C516" s="0">
         <v>29.261777362433456</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517">
+    <row r="517" x14ac:dyDescent="0.2">
+      <c r="A517" s="0">
         <v>45.83993626142955</v>
       </c>
-      <c r="B517">
+      <c r="B517" s="0">
         <v>36.259876244367945</v>
       </c>
-      <c r="C517">
+      <c r="C517" s="0">
         <v>43.161282064264412</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518">
+    <row r="518" x14ac:dyDescent="0.2">
+      <c r="A518" s="0">
         <v>40.455919974660027</v>
       </c>
-      <c r="B518">
+      <c r="B518" s="0">
         <v>33.976185771890805</v>
       </c>
-      <c r="C518">
+      <c r="C518" s="0">
         <v>40.000314646056928</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519">
+    <row r="519" x14ac:dyDescent="0.2">
+      <c r="A519" s="0">
         <v>68.614452314273592</v>
       </c>
-      <c r="B519">
+      <c r="B519" s="0">
         <v>34.037702707423151</v>
       </c>
-      <c r="C519">
+      <c r="C519" s="0">
         <v>50.934973183884992</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C520">
+    <row r="520" x14ac:dyDescent="0.2">
+      <c r="A520" s="0"/>
+      <c r="B520" s="0"/>
+      <c r="C520" s="0">
         <v>1591.5632612273607</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521">
+    <row r="521" x14ac:dyDescent="0.2">
+      <c r="A521" s="0">
         <v>42.923548319315117</v>
       </c>
-      <c r="B521">
+      <c r="B521" s="0">
         <v>39.083265229142931</v>
       </c>
-      <c r="C521">
+      <c r="C521" s="0">
         <v>29.700458579646092</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522">
+    <row r="522" x14ac:dyDescent="0.2">
+      <c r="A522" s="0">
         <v>50.895587665159162</v>
       </c>
-      <c r="B522">
+      <c r="B522" s="0">
         <v>40.615700281883974</v>
       </c>
-      <c r="C522">
+      <c r="C522" s="0">
         <v>45.501672177666272</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523">
+    <row r="523" x14ac:dyDescent="0.2">
+      <c r="A523" s="0">
         <v>27.889698507700206</v>
       </c>
-      <c r="B523">
+      <c r="B523" s="0">
         <v>30.430226827871582</v>
       </c>
-      <c r="C523">
+      <c r="C523" s="0">
         <v>43.480954508534474</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524">
+    <row r="524" x14ac:dyDescent="0.2">
+      <c r="A524" s="0">
         <v>30.735577217348713</v>
       </c>
-      <c r="B524">
+      <c r="B524" s="0">
         <v>36.849970800029503</v>
       </c>
-      <c r="C524">
+      <c r="C524" s="0">
         <v>19.207487984611788</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525">
+    <row r="525" x14ac:dyDescent="0.2">
+      <c r="A525" s="0">
         <v>33.914479723109338</v>
       </c>
-      <c r="B525">
+      <c r="B525" s="0">
         <v>39.861434488367593</v>
       </c>
-      <c r="C525">
+      <c r="C525" s="0">
         <v>30.102072176492833</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B526">
+    <row r="526" x14ac:dyDescent="0.2">
+      <c r="A526" s="0"/>
+      <c r="B526" s="0">
         <v>67.129725833198691</v>
       </c>
-      <c r="C526">
+      <c r="C526" s="0">
         <v>48.399602463759251</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527">
+    <row r="527" x14ac:dyDescent="0.2">
+      <c r="A527" s="0">
         <v>43.299583533639591</v>
       </c>
-      <c r="B527">
+      <c r="B527" s="0">
         <v>24.472178114641192</v>
       </c>
-      <c r="C527">
+      <c r="C527" s="0">
         <v>24.008466830878799</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528">
+    <row r="528" x14ac:dyDescent="0.2">
+      <c r="A528" s="0">
         <v>23.269149997657092</v>
       </c>
-      <c r="B528">
+      <c r="B528" s="0">
         <v>22.863558618343049</v>
       </c>
-      <c r="C528">
+      <c r="C528" s="0">
         <v>25.536611896974424</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529">
+    <row r="529" x14ac:dyDescent="0.2">
+      <c r="A529" s="0">
         <v>36.518377505159798</v>
       </c>
-      <c r="C529">
+      <c r="B529" s="0"/>
+      <c r="C529" s="0">
         <v>43.205608272572078</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530">
+    <row r="530" x14ac:dyDescent="0.2">
+      <c r="A530" s="0">
         <v>91.506854970739028</v>
       </c>
-      <c r="B530">
+      <c r="B530" s="0">
         <v>33.492462287477309</v>
       </c>
-      <c r="C530">
+      <c r="C530" s="0">
         <v>81.965775862516765</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531">
+    <row r="531" x14ac:dyDescent="0.2">
+      <c r="A531" s="0">
         <v>80.900747582418759</v>
       </c>
-      <c r="B531">
+      <c r="B531" s="0">
         <v>41.980758407167762</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532">
+      <c r="C531" s="0"/>
+    </row>
+    <row r="532" x14ac:dyDescent="0.2">
+      <c r="A532" s="0">
         <v>32.918247342475809</v>
       </c>
-      <c r="B532">
+      <c r="B532" s="0">
         <v>33.988789115671587</v>
       </c>
-      <c r="C532">
+      <c r="C532" s="0">
         <v>34.780522224848696</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533">
+    <row r="533" x14ac:dyDescent="0.2">
+      <c r="A533" s="0">
         <v>45.507632983549257</v>
       </c>
-      <c r="B533">
+      <c r="B533" s="0">
         <v>46.167946186507287</v>
       </c>
-      <c r="C533">
+      <c r="C533" s="0">
         <v>45.07836328170837</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534">
+    <row r="534" x14ac:dyDescent="0.2">
+      <c r="A534" s="0">
         <v>85.399241275515578</v>
       </c>
-      <c r="C534">
+      <c r="B534" s="0"/>
+      <c r="C534" s="0">
         <v>38.320765444824715</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535">
+    <row r="535" x14ac:dyDescent="0.2">
+      <c r="A535" s="0">
         <v>48.646676376152804</v>
       </c>
-      <c r="B535">
+      <c r="B535" s="0">
         <v>39.553033011440689</v>
       </c>
-      <c r="C535">
+      <c r="C535" s="0">
         <v>34.236939713757529</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536">
+    <row r="536" x14ac:dyDescent="0.2">
+      <c r="A536" s="0">
         <v>69.226614305786939</v>
       </c>
-      <c r="B536">
+      <c r="B536" s="0">
         <v>72.977778852277055</v>
       </c>
-      <c r="C536">
+      <c r="C536" s="0">
         <v>50.942102241431414</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537">
+    <row r="537" x14ac:dyDescent="0.2">
+      <c r="A537" s="0">
         <v>37.501694541721221</v>
       </c>
-      <c r="B537">
+      <c r="B537" s="0">
         <v>41.950487083391955</v>
       </c>
-      <c r="C537">
+      <c r="C537" s="0">
         <v>76.583542733904878</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538">
+    <row r="538" x14ac:dyDescent="0.2">
+      <c r="A538" s="0">
         <v>27.695860896472801</v>
       </c>
-      <c r="B538">
+      <c r="B538" s="0">
         <v>39.792724987156696</v>
       </c>
-      <c r="C538">
+      <c r="C538" s="0">
         <v>129.38630965404332</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539">
+    <row r="539" x14ac:dyDescent="0.2">
+      <c r="A539" s="0">
         <v>49.089830755997205</v>
       </c>
-      <c r="B539">
+      <c r="B539" s="0">
         <v>75.224103976892863</v>
       </c>
-      <c r="C539">
+      <c r="C539" s="0">
         <v>51.441716475288523</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540">
+    <row r="540" x14ac:dyDescent="0.2">
+      <c r="A540" s="0">
         <v>37.46226899510183</v>
       </c>
-      <c r="B540">
+      <c r="B540" s="0">
         <v>41.731320493573939</v>
       </c>
-      <c r="C540">
+      <c r="C540" s="0">
         <v>44.198262026173957</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541">
+    <row r="541" x14ac:dyDescent="0.2">
+      <c r="A541" s="0">
         <v>55.809772336949806</v>
       </c>
-      <c r="B541">
+      <c r="B541" s="0">
         <v>30.307683445981635</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542">
+      <c r="C541" s="0"/>
+    </row>
+    <row r="542" x14ac:dyDescent="0.2">
+      <c r="A542" s="0">
         <v>69.305769137912975</v>
       </c>
-      <c r="B542">
+      <c r="B542" s="0">
         <v>44.543304135263334</v>
       </c>
-      <c r="C542">
+      <c r="C542" s="0">
         <v>36.567861003201834</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543">
+    <row r="543" x14ac:dyDescent="0.2">
+      <c r="A543" s="0">
         <v>40.894805856711869</v>
       </c>
-      <c r="B543">
+      <c r="B543" s="0">
         <v>21.534680382142845</v>
       </c>
-      <c r="C543">
+      <c r="C543" s="0">
         <v>28.836767437897688</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544">
+    <row r="544" x14ac:dyDescent="0.2">
+      <c r="A544" s="0">
         <v>84.979514239057323</v>
       </c>
-      <c r="B544">
+      <c r="B544" s="0">
         <v>58.412830293197324</v>
       </c>
-      <c r="C544">
+      <c r="C544" s="0">
         <v>96.784317732882997</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545">
+    <row r="545" x14ac:dyDescent="0.2">
+      <c r="A545" s="0">
         <v>129.54175411385015</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="0">
         <v>38.684033017336766</v>
       </c>
-      <c r="C545">
+      <c r="C545" s="0">
         <v>49.747516194919505</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546">
+    <row r="546" x14ac:dyDescent="0.2">
+      <c r="A546" s="0">
         <v>66.22364245227719</v>
       </c>
-      <c r="B546">
+      <c r="B546" s="0">
         <v>40.67435733860178</v>
       </c>
-      <c r="C546">
+      <c r="C546" s="0">
         <v>61.744300991798596</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547">
+    <row r="547" x14ac:dyDescent="0.2">
+      <c r="A547" s="0">
         <v>18.3517934710659</v>
       </c>
-      <c r="B547">
+      <c r="B547" s="0">
         <v>33.544005223462719</v>
       </c>
-      <c r="C547">
+      <c r="C547" s="0">
         <v>28.216195050591121</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548">
+    <row r="548" x14ac:dyDescent="0.2">
+      <c r="A548" s="0">
         <v>20.293527280943731</v>
       </c>
-      <c r="B548">
+      <c r="B548" s="0">
         <v>27.522329526970999</v>
       </c>
-      <c r="C548">
+      <c r="C548" s="0">
         <v>32.741752713953716</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549">
+    <row r="549" x14ac:dyDescent="0.2">
+      <c r="A549" s="0">
         <v>53.491476898768276</v>
       </c>
-      <c r="B549">
+      <c r="B549" s="0">
         <v>50.692691890609595</v>
       </c>
-      <c r="C549">
+      <c r="C549" s="0">
         <v>38.478722227796304</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550">
+    <row r="550" x14ac:dyDescent="0.2">
+      <c r="A550" s="0">
         <v>140.19274462693596</v>
       </c>
-      <c r="B550">
+      <c r="B550" s="0">
         <v>57.564785870240712</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551">
+      <c r="C550" s="0"/>
+    </row>
+    <row r="551" x14ac:dyDescent="0.2">
+      <c r="A551" s="0">
         <v>73.905380328216879</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B551" s="0"/>
+      <c r="C551" s="0"/>
+    </row>
+    <row r="554" x14ac:dyDescent="0.2">
       <c r="A554">
         <f>AVERAGE(A2:A551)</f>
         <v>26.922841302144416</v>
@@ -6378,7 +6427,7 @@
         <v>30.687368238507592</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" x14ac:dyDescent="0.2">
       <c r="A555">
         <f>STDEV(A2:A551)/A556</f>
         <v>2.2181917031849685E-2</v>
@@ -6392,7 +6441,7 @@
         <v>0.12591440424963329</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" x14ac:dyDescent="0.2">
       <c r="A556">
         <f>COUNT(A2:A551)</f>
         <v>539</v>
